--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="11">
   <si>
     <t>Retail Name</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Hello Natore</t>
+  </si>
+  <si>
+    <t>ABC Communication</t>
+  </si>
+  <si>
+    <t>c21/64</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -10209,8 +10221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10240,16 +10252,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053220874</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053221633</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="18">
   <si>
     <t>Retail Name</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>C20A</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
+  </si>
+  <si>
+    <t>C25s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir Tel//Tutul </t>
+  </si>
+  <si>
+    <t>C20a</t>
+  </si>
+  <si>
+    <t>C21/32</t>
+  </si>
+  <si>
+    <t>Kabir//Bina Mobile</t>
   </si>
 </sst>
 </file>
@@ -10221,8 +10242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19973,7 +19994,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20003,10 +20024,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051670237</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -22627,8 +22656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22658,58 +22687,126 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050428615</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623050431171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051671854</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050217133</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053521438</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050395878</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050560794</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>861180050196714</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="33">
   <si>
     <t>Retail Name</t>
   </si>
@@ -98,6 +98,51 @@
   </si>
   <si>
     <t>Kabir//Bina Mobile</t>
+  </si>
+  <si>
+    <t>Kabir Telecom//Tutul</t>
+  </si>
+  <si>
+    <t>c20a</t>
+  </si>
+  <si>
+    <t>c25s</t>
+  </si>
+  <si>
+    <t>Kabir Telecom//Haider</t>
+  </si>
+  <si>
+    <t>C21/64</t>
+  </si>
+  <si>
+    <t>Dighe Telecom</t>
+  </si>
+  <si>
+    <t>Kabir// Raj OPPO TSM</t>
+  </si>
+  <si>
+    <t>Molla Mobile</t>
+  </si>
+  <si>
+    <t>(C20a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C20a) </t>
+  </si>
+  <si>
+    <t>(C21 32)</t>
+  </si>
+  <si>
+    <t>(C21 64)</t>
+  </si>
+  <si>
+    <t>Kabir//Mitali Telecom</t>
+  </si>
+  <si>
+    <t>T.M Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Rimi Telecom</t>
   </si>
 </sst>
 </file>
@@ -23610,7 +23655,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23640,106 +23685,242 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053024714</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051129291</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051615018</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050224659</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050196953</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053110117</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053101439</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053228133</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790051671490</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790051614839</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790051670633</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053521891</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053521636</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092053159072</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8">
+        <v>869092053118235</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790051670930</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053521479</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -24486,6 +24667,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C19">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24495,7 +24679,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24525,9 +24709,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867872050307713</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="55">
   <si>
     <t>Retail Name</t>
   </si>
@@ -143,6 +143,72 @@
   </si>
   <si>
     <t>Kabir//Rimi Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Tutul</t>
+  </si>
+  <si>
+    <t>Kabir//Vai Vai Halsha</t>
+  </si>
+  <si>
+    <t>8Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64)</t>
+  </si>
+  <si>
+    <t>Desh Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Babu Computer</t>
+  </si>
+  <si>
+    <t>c25/128</t>
+  </si>
+  <si>
+    <t>Biswash telecom</t>
+  </si>
+  <si>
+    <t>c25s/64</t>
+  </si>
+  <si>
+    <t>Friends Mobile</t>
+  </si>
+  <si>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>Hridro Mobile</t>
+  </si>
+  <si>
+    <t>CD Sound</t>
+  </si>
+  <si>
+    <t>Kabir//Moom Telecom</t>
+  </si>
+  <si>
+    <t>Boishakhi Telecom</t>
+  </si>
+  <si>
+    <t>(C25 s)</t>
+  </si>
+  <si>
+    <t>Sorkar Telecom</t>
+  </si>
+  <si>
+    <t>(C25 64)</t>
+  </si>
+  <si>
+    <t>Sohan Telecom</t>
+  </si>
+  <si>
+    <t>(C25 S)</t>
   </si>
 </sst>
 </file>
@@ -22701,8 +22767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24679,7 +24745,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24712,85 +24778,183 @@
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4">
-        <v>8</v>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="5">
         <v>867872050307713</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053220973</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053221872</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050584794</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092051974936</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052960553</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053197916</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053220775</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051987733</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051986594</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051987311</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694051986990</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051325337</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -25570,8 +25734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25601,167 +25765,383 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053407299</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052960975</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050219691</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050438355</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051414453</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053407695</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050226233</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>869092052979413</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050224436</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050360757</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053521214</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053409212</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051615455</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050224477</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050224295</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050190857</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790051380472</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051463396</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051413356</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052164735</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>861180050431871</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051420396</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050224832</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051355691</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051371730</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050192671</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050195450</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -26447,6 +26827,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D28">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="72">
   <si>
     <t>Retail Name</t>
   </si>
@@ -209,6 +209,57 @@
   </si>
   <si>
     <t>(C25 S)</t>
+  </si>
+  <si>
+    <t>Zilani Exclusive</t>
+  </si>
+  <si>
+    <t>Brothers Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Likhon Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Dolilur Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s)</t>
+  </si>
+  <si>
+    <t>Rasel Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c20a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25-28)</t>
+  </si>
+  <si>
+    <t>Apurbo Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21- 32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-64)</t>
+  </si>
+  <si>
+    <t>T.M Mobile</t>
+  </si>
+  <si>
+    <t>Noor Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//MK Telecom</t>
+  </si>
+  <si>
+    <t>C25s/128</t>
+  </si>
+  <si>
+    <t>Kabir//Moriam Telecom</t>
+  </si>
+  <si>
+    <t>SMS</t>
   </si>
 </sst>
 </file>
@@ -611,7 +662,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10354,7 +10405,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20105,7 +20156,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22768,7 +22819,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22783,7 +22834,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22796,8 +22847,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -22811,7 +22865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -22825,7 +22879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -22838,8 +22892,11 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -22852,8 +22909,11 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -22866,8 +22926,11 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -22877,7 +22940,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22891,7 +22954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -22905,7 +22968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -22919,37 +22982,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -23720,8 +23783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23736,7 +23799,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23750,7 +23813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -23763,8 +23826,11 @@
       <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -23777,8 +23843,11 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -23792,7 +23861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -23806,7 +23875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -23820,7 +23889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -23834,7 +23903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -23848,7 +23917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -23862,7 +23931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -23876,7 +23945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -23890,7 +23959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -23904,7 +23973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -23918,7 +23987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -23932,7 +24001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -23946,7 +24015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -25734,8 +25803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26838,8 +26907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26869,268 +26938,612 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052955355</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053407950</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050437555</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092053191752</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053191372</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050605790</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050601674</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050621672</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051370096</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051418614</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050218313</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790051615174</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051283437</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790051128210</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052992978</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052960470</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051371391</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050217851</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050222117</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050226613</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051418911</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790051670575</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092053024854</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="8">
+        <v>869092053197551</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051619690</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050314591</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050218958</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050257998</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623050170555</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>861180050436391</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>861180050392719</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092052961833</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053521933</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694051371870</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623050220533</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>861180050561636</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092052865430</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053196710</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053407737</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092053328537</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092053329113</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092053191315</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092052961254</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -27715,6 +28128,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D42">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27724,7 +28140,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="30" sheetId="30" r:id="rId30"/>
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="84">
   <si>
     <t>Retail Name</t>
   </si>
@@ -260,6 +260,42 @@
   </si>
   <si>
     <t>SMS</t>
+  </si>
+  <si>
+    <t>(4/64</t>
+  </si>
+  <si>
+    <t>Kabir// Jafor Realme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c21-32) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s/128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25-s)</t>
+  </si>
+  <si>
+    <t>Kabir//Mondol Najirpur</t>
+  </si>
+  <si>
+    <t>Zilani Mobile</t>
+  </si>
+  <si>
+    <t>Friends Mobile Collection</t>
+  </si>
+  <si>
+    <t>Momtaj Telecom</t>
+  </si>
+  <si>
+    <t>Biswash Mobile</t>
+  </si>
+  <si>
+    <t>Saju Mobile</t>
   </si>
 </sst>
 </file>
@@ -1554,14 +1590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1585,212 +1621,484 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050614412</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051369411</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051372290</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694052018215</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051420412</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790051383377</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053408750</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053328479</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053328917</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8">
+        <v>869694051587954</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050308858</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053191919</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052557532</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050433356</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050609310</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694052021375</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051363257</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694052021615</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050430934</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050313890</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053328859</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052189294</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052729750</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053521990</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053190895</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092052960835</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868790051413273</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092053328412</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051369536</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>861180050190790</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053208556</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053175292</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053328578</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053328339</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -2431,6 +2739,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2440,7 +2751,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23783,8 +24094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="104">
   <si>
     <t>Retail Name</t>
   </si>
@@ -296,6 +296,66 @@
   </si>
   <si>
     <t>Saju Mobile</t>
+  </si>
+  <si>
+    <t>C25S/64</t>
+  </si>
+  <si>
+    <t>Kabir Tel//Rofiqul</t>
+  </si>
+  <si>
+    <t>Tuhin Mobie</t>
+  </si>
+  <si>
+    <t>Jafor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dighi </t>
+  </si>
+  <si>
+    <t>Kabir//Hirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8pro)</t>
+  </si>
+  <si>
+    <t>Biswash Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c20-a)</t>
+  </si>
+  <si>
+    <t>Kabir//Babu Com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (narzo- 20)</t>
+  </si>
+  <si>
+    <t>(c25-28)</t>
+  </si>
+  <si>
+    <t>Boishakhi Teleocm</t>
+  </si>
+  <si>
+    <t>Kabir//Ashik Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8-128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-128)</t>
+  </si>
+  <si>
+    <t>ABC Communicaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20a) </t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t>Hriddro Mobile</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,22 +2841,46 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050220657</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051306777</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051365658</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3635,14 +3719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -3666,344 +3750,784 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050429472</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623050408591</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050430579</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050214890</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050598953</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050407379</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050408872</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052872170</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052729271</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053191158</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052960835</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053126733</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050605592</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050408252</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050405977</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867872050448178</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051502110</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051987139</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051987139</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>861180050609310</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>861180050433356</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050409193</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050403212</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050403212</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050407395</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050615674</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="8">
+        <v>867623050614792</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050614313</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623050420778</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092053221831</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051127410</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050265736</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050587071</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790051280136</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790051128657</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623050407973</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092053094295</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053328776</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053221690</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092053328651</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050217513</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="5">
+        <v>861180050431590</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="5">
+        <v>861180050392792</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694051987337</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694052018850</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623050584250</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623050420737</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="5">
+        <v>868790051413398</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092052192611</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092052297816</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623050405514</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="5">
+        <v>862427050627415</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="5">
+        <v>862427050627951</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="5">
+        <v>862427050630930</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="5">
+        <v>862427050627753</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,6 +5036,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A13:D56">
+    <sortCondition ref="A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="105">
   <si>
     <t>Retail Name</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Hriddro Mobile</t>
+  </si>
+  <si>
+    <t>C25/64</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5047,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,87 +5081,171 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051985554</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051986859</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051985612</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051985935</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051986230</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051987014</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694052019999</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051987493</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694052023017</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051986818</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694052023611</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694052018793</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694052023579</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694052022639</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="113">
   <si>
     <t>Retail Name</t>
   </si>
@@ -359,6 +359,30 @@
   </si>
   <si>
     <t>C25/64</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t>Desh Telecom</t>
+  </si>
+  <si>
+    <t>G-Store</t>
+  </si>
+  <si>
+    <t>Rose Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-64) </t>
+  </si>
+  <si>
+    <t>Kabir//Friends Charghat</t>
+  </si>
+  <si>
+    <t>( C2564)</t>
   </si>
 </sst>
 </file>
@@ -3722,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,8 +5074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5090,7 +5114,9 @@
       <c r="C2" s="5">
         <v>869694051985554</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5102,7 +5128,9 @@
       <c r="C3" s="5">
         <v>869694051986859</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5114,7 +5142,9 @@
       <c r="C4" s="5">
         <v>869694051985612</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5126,7 +5156,9 @@
       <c r="C5" s="5">
         <v>869694051985935</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -5138,7 +5170,9 @@
       <c r="C6" s="5">
         <v>869694051986230</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -5150,7 +5184,9 @@
       <c r="C7" s="5">
         <v>869694051987014</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -5162,7 +5198,9 @@
       <c r="C8" s="5">
         <v>869694052019999</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5174,7 +5212,9 @@
       <c r="C9" s="5">
         <v>869694051987493</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -5186,7 +5226,9 @@
       <c r="C10" s="5">
         <v>869694052023017</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -5198,7 +5240,9 @@
       <c r="C11" s="5">
         <v>869694051986818</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5210,7 +5254,9 @@
       <c r="C12" s="5">
         <v>869694052023611</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5222,7 +5268,9 @@
       <c r="C13" s="8">
         <v>869694052018793</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -5234,7 +5282,9 @@
       <c r="C14" s="5">
         <v>869694052023579</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -5246,181 +5296,407 @@
       <c r="C15" s="5">
         <v>869694052022639</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052372197</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694052023371</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694052022613</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050262576</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050405092</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050403576</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050257055</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052870299</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790051279955</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050430850</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050260836</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050609412</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050609396</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050231597</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623050405654</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5">
+        <v>861180050559119</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050258574</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051986214</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694051986313</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092052872337</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694051986511</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694051986198</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050405951</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623050258194</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694051987717</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623050403733</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050789990</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050791517</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,12 @@
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="322">
   <si>
     <t>Retail Name</t>
   </si>
@@ -384,12 +385,639 @@
   <si>
     <t>( C2564)</t>
   </si>
+  <si>
+    <t>C25s/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(c21-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051037874 (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050478552 (c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050405852 (c25s-64) </t>
+  </si>
+  <si>
+    <t>Bismillah telecom</t>
+  </si>
+  <si>
+    <t>869092052873293 (c21-64)</t>
+  </si>
+  <si>
+    <t>867623050389155 (c25s)</t>
+  </si>
+  <si>
+    <t>Noor</t>
+  </si>
+  <si>
+    <t>867623050385419 (c25s)</t>
+  </si>
+  <si>
+    <t>Dipto Mobile</t>
+  </si>
+  <si>
+    <t>869092052872774 (c21-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma Telecom </t>
+  </si>
+  <si>
+    <t>867623050291815(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050349795(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050388199(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050349456(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050452177(C25 S)</t>
+  </si>
+  <si>
+    <t>868790051145891 (c20a)</t>
+  </si>
+  <si>
+    <t>869092053495559 (c21-32)</t>
+  </si>
+  <si>
+    <t>869092052873210 (c21-64)</t>
+  </si>
+  <si>
+    <t>Brothers Telcom</t>
+  </si>
+  <si>
+    <t>Kabir//Somobai</t>
+  </si>
+  <si>
+    <t>868790051810973 (c20a)</t>
+  </si>
+  <si>
+    <t>867623050358994 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050349258 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050385070 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050389239 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050366633 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050387498 (c25s)</t>
+  </si>
+  <si>
+    <t>861180050387412 (8-128)</t>
+  </si>
+  <si>
+    <t>867872050192990 (8pro)</t>
+  </si>
+  <si>
+    <t>861180050374279 (8)</t>
+  </si>
+  <si>
+    <t>869092053487515 (c21-32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051144639 (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050349191 (c25s-64) </t>
+  </si>
+  <si>
+    <t>869092053487713(C21 32)</t>
+  </si>
+  <si>
+    <t>869092053486376(C21 32)</t>
+  </si>
+  <si>
+    <t>867623050407718(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050409474(C25 S)</t>
+  </si>
+  <si>
+    <t>Kabir//Shafi Mobile</t>
+  </si>
+  <si>
+    <t>869092052771034(C21 64)</t>
+  </si>
+  <si>
+    <t>Kabir//Bosundhora</t>
+  </si>
+  <si>
+    <t>867623050258814 (c25s)</t>
+  </si>
+  <si>
+    <t>Moom Telecom</t>
+  </si>
+  <si>
+    <t>867623050430553 (c25s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051129614 (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050430314 (c25s-64) </t>
+  </si>
+  <si>
+    <t>rose Mobile</t>
+  </si>
+  <si>
+    <t>867623050349274 (c25s-64)</t>
+  </si>
+  <si>
+    <t>869092053358856 (c21-32)</t>
+  </si>
+  <si>
+    <t>868790051810916 (c20a)</t>
+  </si>
+  <si>
+    <t>869092053497597 (c21-32)</t>
+  </si>
+  <si>
+    <t>869092053486970 (c21-32)</t>
+  </si>
+  <si>
+    <t>869092052873434 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092052700991 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092052873277 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092052774632 (c21-64)</t>
+  </si>
+  <si>
+    <t>869694051985778 (c25-64)</t>
+  </si>
+  <si>
+    <t>869694052023637 (c25-64)</t>
+  </si>
+  <si>
+    <t>869694052023157 (c25-64)</t>
+  </si>
+  <si>
+    <t>867623050431056 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050389692 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050430835 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050385534 (c25s)</t>
+  </si>
+  <si>
+    <t>861180050387057 (8-128)</t>
+  </si>
+  <si>
+    <t>867872050170814 (8pro)</t>
+  </si>
+  <si>
+    <t>867872050307531 (8pro)</t>
+  </si>
+  <si>
+    <t>Kabir//Usha Teleccom</t>
+  </si>
+  <si>
+    <t>869092052872832(C21 64)</t>
+  </si>
+  <si>
+    <t>867623050385815(C25 S)</t>
+  </si>
+  <si>
+    <t>Kabir//Barsha Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051154992 (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052302756 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050428979 (c25s-64) </t>
+  </si>
+  <si>
+    <t>Arham Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092053026933 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052869770 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052729578 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052850838 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050349654 (c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050609099 (c25s-64) </t>
+  </si>
+  <si>
+    <t>869092052870992 (c21-64)</t>
+  </si>
+  <si>
+    <t>Zam Zam Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052872535 (c21-64) </t>
+  </si>
+  <si>
+    <t>Bina Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051810957(C20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051142419(C20a) </t>
+  </si>
+  <si>
+    <t>869092053494230(C21 32)</t>
+  </si>
+  <si>
+    <t>869092053487952(C21 32)</t>
+  </si>
+  <si>
+    <t>869092053220098(C21 64)</t>
+  </si>
+  <si>
+    <t>869092052698278(C21 64)</t>
+  </si>
+  <si>
+    <t>869092053498058 (c21-32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052771398 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052775910 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052872857 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092052872576 (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050442798 (c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050579953(c25s-64) </t>
+  </si>
+  <si>
+    <t>861180050386794 (8)</t>
+  </si>
+  <si>
+    <t>867872050444896 (8pro)</t>
+  </si>
+  <si>
+    <t>867623050389791(C25 S)</t>
+  </si>
+  <si>
+    <t>Kabir//Rofiqul</t>
+  </si>
+  <si>
+    <t>867623050790352(c25s-28)</t>
+  </si>
+  <si>
+    <t>Babu Computer</t>
+  </si>
+  <si>
+    <t>869092052994859 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092053221393 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092053122914 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092052961437 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092052873350 (c21-64)</t>
+  </si>
+  <si>
+    <t>867623050362970(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050349779(c25s-64</t>
+  </si>
+  <si>
+    <t>Sr Telecom</t>
+  </si>
+  <si>
+    <t>868790051811070 (c20-a)</t>
+  </si>
+  <si>
+    <t>Momtaz Telecom</t>
+  </si>
+  <si>
+    <t>868790051287073 (c20-a)</t>
+  </si>
+  <si>
+    <t>867623050371476(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050790097(c25s-28)</t>
+  </si>
+  <si>
+    <t>861180050567393 (8-128)</t>
+  </si>
+  <si>
+    <t>867623050791392(c25s-28)</t>
+  </si>
+  <si>
+    <t>869694052017472 (c25-64)</t>
+  </si>
+  <si>
+    <t>867623050375733(c25s-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051810874(C20a) </t>
+  </si>
+  <si>
+    <t>869092053024292(C21 64)</t>
+  </si>
+  <si>
+    <t>869092052774558(C21 64)</t>
+  </si>
+  <si>
+    <t>861180050564697(8)</t>
+  </si>
+  <si>
+    <t>Dighi Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051143151(C20a) </t>
+  </si>
+  <si>
+    <t>869092052872352(C21 64)</t>
+  </si>
+  <si>
+    <t>869092052735294(C21 64)</t>
+  </si>
+  <si>
+    <t>867623050430637(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050430876(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050385237(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050361493(C25 S)</t>
+  </si>
+  <si>
+    <t>868790051288832 (c20a)</t>
+  </si>
+  <si>
+    <t>Kabir Telecom</t>
+  </si>
+  <si>
+    <t>869092052873236(C20a)</t>
+  </si>
+  <si>
+    <t>Kabir//Alamin noldanga</t>
+  </si>
+  <si>
+    <t>869092052873236(C21 64)</t>
+  </si>
+  <si>
+    <t>Kabir//Akter</t>
+  </si>
+  <si>
+    <t>867623050417857 (c25s-64)</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t>867623050225011 (c25s)</t>
+  </si>
+  <si>
+    <t>Brothers Teleocom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868790051722053 (c20a) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092053486319 (c21-32) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">869092053487937 (c21-32) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050429597 (c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050560730 (c25s-64) </t>
+  </si>
+  <si>
+    <t>867623050738716 (c25s-128)</t>
+  </si>
+  <si>
+    <t>867623050858019 (c25s-128)</t>
+  </si>
+  <si>
+    <t>867623050831750 (c25s-128)</t>
+  </si>
+  <si>
+    <t>867623050720375 (c25s-128)</t>
+  </si>
+  <si>
+    <t>867623050729491 (c25s-128)</t>
+  </si>
+  <si>
+    <t>867623050730614 (c25s)</t>
+  </si>
+  <si>
+    <t>867623050823138 (c25s)</t>
+  </si>
+  <si>
+    <t>861180050378155 ((8-128)</t>
+  </si>
+  <si>
+    <t>861180050569670 (8-128)</t>
+  </si>
+  <si>
+    <t>869092053270994 (c21-64</t>
+  </si>
+  <si>
+    <t>869092053271299 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092053271513 (c21-64)</t>
+  </si>
+  <si>
+    <t>867623050416099(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050417196(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050416776(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050416479(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050430652(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050729939(c25s-28)</t>
+  </si>
+  <si>
+    <t>861180050385614 (8-128)</t>
+  </si>
+  <si>
+    <t>868790051810999 (c20a)</t>
+  </si>
+  <si>
+    <t>869092053407638 (c21-32)</t>
+  </si>
+  <si>
+    <t>869092052865778 (c21-64)</t>
+  </si>
+  <si>
+    <t>867623050415513(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050309377(c25s-64)</t>
+  </si>
+  <si>
+    <t>861180050568599 (8-128)</t>
+  </si>
+  <si>
+    <t>861180050386133 (8-128)</t>
+  </si>
+  <si>
+    <t>869092053482359(C21 32)</t>
+  </si>
+  <si>
+    <t>869092052736235(C21 64)</t>
+  </si>
+  <si>
+    <t>869092053171556(C21 64)</t>
+  </si>
+  <si>
+    <t>867623050287474(C25 S)</t>
+  </si>
+  <si>
+    <t>864'-05028"292(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050349118(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050560391(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050599134(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050592659(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050729350(C25 128)</t>
+  </si>
+  <si>
+    <t>869092053486731(C21 32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867623050287458(C25 S 64) </t>
+  </si>
+  <si>
+    <t>867623050730275(C25 S128)</t>
+  </si>
+  <si>
+    <t>867623050287292(C25 S)</t>
+  </si>
+  <si>
+    <t>867623050865154(C25 S128)</t>
+  </si>
+  <si>
+    <t>867623050859918(C25 S128)</t>
+  </si>
+  <si>
+    <t>867623050825216(C25 S128)</t>
+  </si>
+  <si>
+    <t>867623050724054(C25 S128)</t>
+  </si>
+  <si>
+    <t>Dighe Mobile</t>
+  </si>
+  <si>
+    <t>868790051518378 (c20a)</t>
+  </si>
+  <si>
+    <t>869092053487135 (c21-32)</t>
+  </si>
+  <si>
+    <t>869092052730410 (c21-64)</t>
+  </si>
+  <si>
+    <t>869092053273352 (c21-64)</t>
+  </si>
+  <si>
+    <t>867623050269035(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050409615(c25s-64)</t>
+  </si>
+  <si>
+    <t>867623050729574(c25s-28)</t>
+  </si>
+  <si>
+    <t>867623050730911(c25s-28)</t>
+  </si>
+  <si>
+    <t>868790051283775 (c20a)</t>
+  </si>
+  <si>
+    <t>869092053486814 (c21-32)</t>
+  </si>
+  <si>
+    <t>c21/32</t>
+  </si>
+  <si>
+    <t>c25s/128</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi brand</t>
+  </si>
+  <si>
+    <t>Soniya Telecom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +1027,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -445,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,6 +1112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5074,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,17 +6932,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -6326,194 +6965,319 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050384658</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="D28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -6562,6 +7326,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -6575,7 +7340,6 @@
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -6618,6 +7382,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6631,7 +7396,6 @@
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -6644,6 +7408,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -6737,10 +7502,7 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,7 +7703,6 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -7151,7 +7912,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -7168,27 +7929,25 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -7211,850 +7970,1589 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053123151</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>867623050371450</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>868790051035951</v>
+      </c>
       <c r="D39" s="6"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <v>867623050387936</v>
+      </c>
       <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5">
+        <v>867623050349712</v>
+      </c>
       <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5">
+        <v>867623050430678</v>
+      </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="D48" s="6"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5">
+        <v>869092052774475</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5">
+        <v>867623050560771</v>
+      </c>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5">
+        <v>867623050563478</v>
+      </c>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5">
+        <v>867623050416453</v>
+      </c>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C189" s="11"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8063,17 +9561,17 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E116" sqref="E115:E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -8081,7 +9579,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8095,851 +9593,1695 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050592592</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623050558759</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050561613</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050416073</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050262097</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050351635</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050541516</v>
+      </c>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="M8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050416255</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050273599</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050389353</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053497811</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092051979158</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050729475</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050862490</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790051519178</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790051721931</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623050857995</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050756833</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050763656</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5">
+        <v>868790051721758</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="5">
+        <v>868790051721493</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="5">
+        <v>869092053494370</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5">
+        <v>869092053271398</v>
+      </c>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="5">
+        <v>869092053271174</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="5">
+        <v>867623050406298</v>
+      </c>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="5">
+        <v>867623050406538</v>
+      </c>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
+        <v>86782050193097</v>
+      </c>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="5">
+        <v>867623050453316</v>
+      </c>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="5">
+        <v>867623050731356</v>
+      </c>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="5">
+        <v>867623050406678</v>
+      </c>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="5">
+        <v>867623050730390</v>
+      </c>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="5">
+        <v>867623050579854</v>
+      </c>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="5">
+        <v>869092053526478</v>
+      </c>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="5">
+        <v>869092052729834</v>
+      </c>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="5">
+        <v>867623050411694</v>
+      </c>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623050593079</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="5">
+        <v>867623050430298</v>
+      </c>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="5">
+        <v>867623050768614</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="5">
+        <v>867623050766196</v>
+      </c>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="5">
+        <v>869092052701213</v>
+      </c>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="5">
+        <v>869092051973094</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="4">
+        <v>8</v>
+      </c>
+      <c r="C103" s="5">
+        <v>861180050568052</v>
+      </c>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="5">
+        <v>869092053271257</v>
+      </c>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="5">
+        <v>869092052872394</v>
+      </c>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="5">
+        <v>869092053172455</v>
+      </c>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="5">
+        <v>869092053271356</v>
+      </c>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="5">
+        <v>869092053271430</v>
+      </c>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C181" s="9"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C182" s="9"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,15 @@
     <sheet name="30" sheetId="30" r:id="rId30"/>
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'16'!$A$1:$E$108</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="165">
   <si>
     <t>Retail Name</t>
   </si>
@@ -395,61 +397,13 @@
     <t>(c21-64)</t>
   </si>
   <si>
-    <t xml:space="preserve">868790051037874 (c20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050478552 (c25s-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050405852 (c25s-64) </t>
-  </si>
-  <si>
     <t>Bismillah telecom</t>
-  </si>
-  <si>
-    <t>869092052873293 (c21-64)</t>
-  </si>
-  <si>
-    <t>867623050389155 (c25s)</t>
   </si>
   <si>
     <t>Noor</t>
   </si>
   <si>
-    <t>867623050385419 (c25s)</t>
-  </si>
-  <si>
     <t>Dipto Mobile</t>
-  </si>
-  <si>
-    <t>869092052872774 (c21-64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma Telecom </t>
-  </si>
-  <si>
-    <t>867623050291815(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050349795(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050388199(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050349456(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050452177(C25 S)</t>
-  </si>
-  <si>
-    <t>868790051145891 (c20a)</t>
-  </si>
-  <si>
-    <t>869092053495559 (c21-32)</t>
-  </si>
-  <si>
-    <t>869092052873210 (c21-64)</t>
   </si>
   <si>
     <t>Brothers Telcom</t>
@@ -458,547 +412,58 @@
     <t>Kabir//Somobai</t>
   </si>
   <si>
-    <t>868790051810973 (c20a)</t>
-  </si>
-  <si>
-    <t>867623050358994 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050349258 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050385070 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050389239 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050366633 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050387498 (c25s)</t>
-  </si>
-  <si>
-    <t>861180050387412 (8-128)</t>
-  </si>
-  <si>
-    <t>867872050192990 (8pro)</t>
-  </si>
-  <si>
-    <t>861180050374279 (8)</t>
-  </si>
-  <si>
-    <t>869092053487515 (c21-32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868790051144639 (c20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050349191 (c25s-64) </t>
-  </si>
-  <si>
-    <t>869092053487713(C21 32)</t>
-  </si>
-  <si>
-    <t>869092053486376(C21 32)</t>
-  </si>
-  <si>
-    <t>867623050407718(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050409474(C25 S)</t>
-  </si>
-  <si>
     <t>Kabir//Shafi Mobile</t>
-  </si>
-  <si>
-    <t>869092052771034(C21 64)</t>
   </si>
   <si>
     <t>Kabir//Bosundhora</t>
   </si>
   <si>
-    <t>867623050258814 (c25s)</t>
-  </si>
-  <si>
-    <t>Moom Telecom</t>
-  </si>
-  <si>
-    <t>867623050430553 (c25s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868790051129614 (c20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050430314 (c25s-64) </t>
-  </si>
-  <si>
     <t>rose Mobile</t>
-  </si>
-  <si>
-    <t>867623050349274 (c25s-64)</t>
-  </si>
-  <si>
-    <t>869092053358856 (c21-32)</t>
-  </si>
-  <si>
-    <t>868790051810916 (c20a)</t>
-  </si>
-  <si>
-    <t>869092053497597 (c21-32)</t>
-  </si>
-  <si>
-    <t>869092053486970 (c21-32)</t>
-  </si>
-  <si>
-    <t>869092052873434 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092052700991 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092052873277 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092052774632 (c21-64)</t>
-  </si>
-  <si>
-    <t>869694051985778 (c25-64)</t>
-  </si>
-  <si>
-    <t>869694052023637 (c25-64)</t>
-  </si>
-  <si>
-    <t>869694052023157 (c25-64)</t>
-  </si>
-  <si>
-    <t>867623050431056 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050389692 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050430835 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050385534 (c25s)</t>
-  </si>
-  <si>
-    <t>861180050387057 (8-128)</t>
-  </si>
-  <si>
-    <t>867872050170814 (8pro)</t>
-  </si>
-  <si>
-    <t>867872050307531 (8pro)</t>
   </si>
   <si>
     <t>Kabir//Usha Teleccom</t>
   </si>
   <si>
-    <t>869092052872832(C21 64)</t>
-  </si>
-  <si>
-    <t>867623050385815(C25 S)</t>
-  </si>
-  <si>
     <t>Kabir//Barsha Telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868790051154992 (c20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052302756 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050428979 (c25s-64) </t>
   </si>
   <si>
     <t>Arham Telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">869092053026933 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052869770 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052729578 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052850838 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050349654 (c25s-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050609099 (c25s-64) </t>
-  </si>
-  <si>
-    <t>869092052870992 (c21-64)</t>
-  </si>
-  <si>
     <t>Zam Zam Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052872535 (c21-64) </t>
   </si>
   <si>
     <t>Bina Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">868790051810957(C20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">868790051142419(C20a) </t>
-  </si>
-  <si>
-    <t>869092053494230(C21 32)</t>
-  </si>
-  <si>
-    <t>869092053487952(C21 32)</t>
-  </si>
-  <si>
-    <t>869092053220098(C21 64)</t>
-  </si>
-  <si>
-    <t>869092052698278(C21 64)</t>
-  </si>
-  <si>
-    <t>869092053498058 (c21-32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052771398 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052775910 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052872857 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092052872576 (c21-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050442798 (c25s-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050579953(c25s-64) </t>
-  </si>
-  <si>
-    <t>861180050386794 (8)</t>
-  </si>
-  <si>
-    <t>867872050444896 (8pro)</t>
-  </si>
-  <si>
-    <t>867623050389791(C25 S)</t>
-  </si>
-  <si>
     <t>Kabir//Rofiqul</t>
-  </si>
-  <si>
-    <t>867623050790352(c25s-28)</t>
-  </si>
-  <si>
-    <t>Babu Computer</t>
-  </si>
-  <si>
-    <t>869092052994859 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092053221393 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092053122914 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092052961437 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092052873350 (c21-64)</t>
-  </si>
-  <si>
-    <t>867623050362970(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050349779(c25s-64</t>
   </si>
   <si>
     <t>Sr Telecom</t>
   </si>
   <si>
-    <t>868790051811070 (c20-a)</t>
-  </si>
-  <si>
     <t>Momtaz Telecom</t>
-  </si>
-  <si>
-    <t>868790051287073 (c20-a)</t>
-  </si>
-  <si>
-    <t>867623050371476(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050790097(c25s-28)</t>
-  </si>
-  <si>
-    <t>861180050567393 (8-128)</t>
-  </si>
-  <si>
-    <t>867623050791392(c25s-28)</t>
-  </si>
-  <si>
-    <t>869694052017472 (c25-64)</t>
-  </si>
-  <si>
-    <t>867623050375733(c25s-64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868790051810874(C20a) </t>
-  </si>
-  <si>
-    <t>869092053024292(C21 64)</t>
-  </si>
-  <si>
-    <t>869092052774558(C21 64)</t>
-  </si>
-  <si>
-    <t>861180050564697(8)</t>
   </si>
   <si>
     <t>Dighi Telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">868790051143151(C20a) </t>
-  </si>
-  <si>
-    <t>869092052872352(C21 64)</t>
-  </si>
-  <si>
-    <t>869092052735294(C21 64)</t>
-  </si>
-  <si>
-    <t>867623050430637(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050430876(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050385237(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050361493(C25 S)</t>
-  </si>
-  <si>
-    <t>868790051288832 (c20a)</t>
-  </si>
-  <si>
     <t>Kabir Telecom</t>
-  </si>
-  <si>
-    <t>869092052873236(C20a)</t>
   </si>
   <si>
     <t>Kabir//Alamin noldanga</t>
   </si>
   <si>
-    <t>869092052873236(C21 64)</t>
-  </si>
-  <si>
     <t>Kabir//Akter</t>
-  </si>
-  <si>
-    <t>867623050417857 (c25s-64)</t>
   </si>
   <si>
     <t>Mobile Park</t>
   </si>
   <si>
-    <t>867623050225011 (c25s)</t>
-  </si>
-  <si>
     <t>Brothers Teleocom</t>
   </si>
   <si>
-    <t xml:space="preserve">868790051722053 (c20a) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092053486319 (c21-32) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">869092053487937 (c21-32) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050429597 (c25s-64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050560730 (c25s-64) </t>
-  </si>
-  <si>
-    <t>867623050738716 (c25s-128)</t>
-  </si>
-  <si>
-    <t>867623050858019 (c25s-128)</t>
-  </si>
-  <si>
-    <t>867623050831750 (c25s-128)</t>
-  </si>
-  <si>
-    <t>867623050720375 (c25s-128)</t>
-  </si>
-  <si>
-    <t>867623050729491 (c25s-128)</t>
-  </si>
-  <si>
-    <t>867623050730614 (c25s)</t>
-  </si>
-  <si>
-    <t>867623050823138 (c25s)</t>
-  </si>
-  <si>
-    <t>861180050378155 ((8-128)</t>
-  </si>
-  <si>
-    <t>861180050569670 (8-128)</t>
-  </si>
-  <si>
-    <t>869092053270994 (c21-64</t>
-  </si>
-  <si>
-    <t>869092053271299 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092053271513 (c21-64)</t>
-  </si>
-  <si>
-    <t>867623050416099(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050417196(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050416776(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050416479(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050430652(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050729939(c25s-28)</t>
-  </si>
-  <si>
-    <t>861180050385614 (8-128)</t>
-  </si>
-  <si>
-    <t>868790051810999 (c20a)</t>
-  </si>
-  <si>
-    <t>869092053407638 (c21-32)</t>
-  </si>
-  <si>
-    <t>869092052865778 (c21-64)</t>
-  </si>
-  <si>
-    <t>867623050415513(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050309377(c25s-64)</t>
-  </si>
-  <si>
-    <t>861180050568599 (8-128)</t>
-  </si>
-  <si>
-    <t>861180050386133 (8-128)</t>
-  </si>
-  <si>
-    <t>869092053482359(C21 32)</t>
-  </si>
-  <si>
-    <t>869092052736235(C21 64)</t>
-  </si>
-  <si>
-    <t>869092053171556(C21 64)</t>
-  </si>
-  <si>
-    <t>867623050287474(C25 S)</t>
-  </si>
-  <si>
-    <t>864'-05028"292(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050349118(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050560391(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050599134(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050592659(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050729350(C25 128)</t>
-  </si>
-  <si>
-    <t>869092053486731(C21 32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">867623050287458(C25 S 64) </t>
-  </si>
-  <si>
-    <t>867623050730275(C25 S128)</t>
-  </si>
-  <si>
-    <t>867623050287292(C25 S)</t>
-  </si>
-  <si>
-    <t>867623050865154(C25 S128)</t>
-  </si>
-  <si>
-    <t>867623050859918(C25 S128)</t>
-  </si>
-  <si>
-    <t>867623050825216(C25 S128)</t>
-  </si>
-  <si>
-    <t>867623050724054(C25 S128)</t>
-  </si>
-  <si>
     <t>Dighe Mobile</t>
-  </si>
-  <si>
-    <t>868790051518378 (c20a)</t>
-  </si>
-  <si>
-    <t>869092053487135 (c21-32)</t>
-  </si>
-  <si>
-    <t>869092052730410 (c21-64)</t>
-  </si>
-  <si>
-    <t>869092053273352 (c21-64)</t>
-  </si>
-  <si>
-    <t>867623050269035(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050409615(c25s-64)</t>
-  </si>
-  <si>
-    <t>867623050729574(c25s-28)</t>
-  </si>
-  <si>
-    <t>867623050730911(c25s-28)</t>
-  </si>
-  <si>
-    <t>868790051283775 (c20a)</t>
-  </si>
-  <si>
-    <t>869092053486814 (c21-32)</t>
   </si>
   <si>
     <t>c21/32</t>
@@ -1010,7 +475,73 @@
     <t>Zam Zam Multi brand</t>
   </si>
   <si>
-    <t>Soniya Telecom</t>
+    <t xml:space="preserve"> (c21-32) </t>
+  </si>
+  <si>
+    <t>(c25s-28)</t>
+  </si>
+  <si>
+    <t>(c25s-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((8-128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64</t>
+  </si>
+  <si>
+    <t>(C25 S128)</t>
+  </si>
+  <si>
+    <t>(C25 S 64)</t>
+  </si>
+  <si>
+    <t>(C25 128)</t>
+  </si>
+  <si>
+    <t>864'-05028"292</t>
+  </si>
+  <si>
+    <t>Kabir//Sohag Telecom</t>
+  </si>
+  <si>
+    <t>Not OK</t>
+  </si>
+  <si>
+    <t>(c25s-64</t>
+  </si>
+  <si>
+    <t>(c20a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c25s-64) </t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>(c25s/128)</t>
+  </si>
+  <si>
+    <t>Don't Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c21-64) </t>
+  </si>
+  <si>
+    <t>Tuhin Moible</t>
+  </si>
+  <si>
+    <t>(c25-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabir//Ma Telecom </t>
   </si>
 </sst>
 </file>
@@ -1054,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1077,11 +608,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,6 +660,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6934,15 +6487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -6966,318 +6519,440 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051143151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052872352</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052735294</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050430637</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050430876</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050385237</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050361493</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050384658</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790051287073</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="12">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>861180050384658</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="8">
+        <v>867623050371476</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050790097</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790051810874</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053024292</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052774558</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050564697</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052994859</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053221393</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092053122914</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092052961437</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5">
+        <v>861180050567393</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050791392</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694052017472</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050375733</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790051288832</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092052873236</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092052873236</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050790352</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790051811070</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092052873350</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623050362970</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050349779</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -7930,6 +7605,9 @@
       <c r="C192" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C33">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7939,15 +7617,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -7971,1017 +7649,1399 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5">
-        <v>869092053123151</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>868790051154992</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052302756</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050428979</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052774475</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052872535</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790051037874</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050478552</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050405852</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050430678</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050349274</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053358856</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790051145891</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051810957</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790051142419</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092053494230</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092053487952</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053220098</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052698278</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050385419</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053123151</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052872832</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050385815</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052771034</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050389791</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053487713</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092053486376</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050407718</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050409474</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C30" s="5">
-        <v>867623050371450</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>869092053495559</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092052873210</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051810916</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053497597</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053486970</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092052873434</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092052700991</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092052873277</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092052774632</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C39" s="5">
-        <v>868790051035951</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>869694051985778</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694052023637</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C41" s="5">
-        <v>867623050387936</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>869694052023157</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C42" s="5">
-        <v>867623050349712</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>867623050431056</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050389692</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C44" s="5">
-        <v>867623050430678</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>867623050430835</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623050385534</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050387057</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867872050170814</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867872050307531</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092052872774</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623050560771</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623050563478</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623050416453</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623050417857</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623050258814</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092052873293</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623050389155</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="5">
+        <v>868790051810973</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623050358994</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050349258</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623050385070</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623050389239</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867623050366633</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623050387498</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="5">
+        <v>861180050387412</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867872050192990</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623050387936</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050349712</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050430314</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="5">
+        <v>867623050430553</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867623050291815</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5">
+        <v>867623050349795</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="5">
+        <v>867623050388199</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="8">
+        <v>867623050349456</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="5">
+        <v>867623050452177</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="5">
+        <v>867623050371450</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C76" s="5">
-        <v>869092052774475</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>867623050349191</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="5">
+        <v>868790051035951</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="5">
+        <v>868790051129614</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869092053498058</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092052771398</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="5">
+        <v>869092052775910</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="5">
+        <v>869092052872857</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="5">
+        <v>869092052872576</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" s="6"/>
+      <c r="B84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="5">
+        <v>867623050442798</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="6"/>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="5">
+        <v>867623050579953</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D86" s="6"/>
+      <c r="B86" s="4">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>861180050386794</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="6"/>
+      <c r="B87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="5">
+        <v>867872050444896</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D88" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="5">
+        <v>869092052870992</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>861180050374279</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="5">
+        <v>869092053487515</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="5">
+        <v>868790051144639</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="5">
+        <v>869092053026933</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="5">
+        <v>869092052869770</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C94" s="5">
-        <v>867623050560771</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>869092052729578</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="C95" s="5">
-        <v>867623050563478</v>
-      </c>
-      <c r="D95" s="6"/>
+        <v>869092052850838</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B96" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C96" s="5">
-        <v>867623050416453</v>
-      </c>
-      <c r="D96" s="6"/>
+        <v>867623050349654</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623050609099</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9555,6 +9615,9 @@
       <c r="C191" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D97">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9563,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E116" sqref="E115:E116"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9592,1105 +9655,1519 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
-        <v>867623050592592</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>869092053526478</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>867623050558759</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>869092052729834</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5">
-        <v>867623050561613</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>867623050411694</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
-        <v>867623050416073</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>867623050593079</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5">
-        <v>867623050262097</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>867623050430298</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
-        <v>867623050351635</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>869092053482359</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
-        <v>867623050541516</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>869092052736235</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="M8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
-        <v>867623050416255</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>869092053171556</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5">
-        <v>867623050273599</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>867623050287474</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="5">
-        <v>867623050389353</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5">
-        <v>869092053497811</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>867623050349118</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>869092051979158</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623050560391</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
-        <v>867623050729475</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>867623050599134</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5">
-        <v>867623050862490</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>867623050592659</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="C16" s="5">
-        <v>868790051519178</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>867623050729350</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5">
-        <v>868790051721931</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>867623050287292</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="5">
-        <v>867623050857995</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>867623050579854</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5">
-        <v>867623050756833</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>869092053271257</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="5">
-        <v>867623050763656</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>867623050592592</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050558759</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050561613</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050416073</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050262097</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050351635</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050541516</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050416255</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050273599</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050389353</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092052701213</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092051973094</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053271299</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053271513</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050416099</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623050417196</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623050416776</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623050416479</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050430652</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="B39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623050729939</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5">
+        <v>861180050385614</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623050225011</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092053270994</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092053497811</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="8">
+        <v>869092051979158</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623050729475</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623050862490</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790051519178</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5">
+        <v>868790051721931</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623050857995</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623050756833</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623050763656</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623050865154</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623050859918</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623050825216</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623050724054</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="5">
+        <v>868790051810999</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092053407638</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092052865778</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050415513</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623050309377</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="5">
+        <v>861180050568599</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="5">
+        <v>861180050386133</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623050730390</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092053486731</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623050287458</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623050730275</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050730614</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050823138</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="5">
+        <v>861180050378155</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="5">
+        <v>861180050569670</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092053271430</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="5">
+        <v>868790051518378</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092053487135</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092052730410</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869092053273352</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="5">
+        <v>867623050269035</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="5">
+        <v>867623050409615</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="5">
+        <v>867623050729574</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="5">
+        <v>867623050730911</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="5">
+        <v>868790051283775</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C81" s="5">
-        <v>868790051721758</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>869092053486814</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C82" s="5">
-        <v>868790051721493</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>867623050453316</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="C83" s="5">
-        <v>869092053494370</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>867623050731356</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C84" s="5">
-        <v>869092053271398</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>867623050406678</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C85" s="5">
-        <v>869092053271174</v>
-      </c>
-      <c r="D85" s="6"/>
+        <v>868790051722053</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C86" s="5">
-        <v>867623050406298</v>
-      </c>
-      <c r="D86" s="6"/>
+        <v>869092053486319</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4"/>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C87" s="5">
-        <v>867623050406538</v>
-      </c>
-      <c r="D87" s="6"/>
+        <v>869092053487937</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4"/>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C88" s="5">
-        <v>86782050193097</v>
-      </c>
-      <c r="D88" s="6"/>
+        <v>867623050429597</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4"/>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C89" s="5">
-        <v>867623050453316</v>
-      </c>
-      <c r="D89" s="6"/>
+        <v>867623050560730</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="4"/>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C90" s="5">
-        <v>867623050731356</v>
-      </c>
-      <c r="D90" s="6"/>
+        <v>867623050738716</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4"/>
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C91" s="5">
-        <v>867623050406678</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>867623050858019</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C92" s="5">
-        <v>867623050730390</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>867623050831750</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4"/>
       <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C93" s="5">
-        <v>867623050579854</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>867623050720375</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4"/>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C94" s="5">
-        <v>869092053526478</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>867623050729491</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4"/>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="5">
-        <v>869092052729834</v>
-      </c>
-      <c r="D95" s="6"/>
+        <v>869092053172455</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
-        <v>867623050411694</v>
-      </c>
-      <c r="D96" s="6"/>
+        <v>869092053271356</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="4"/>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C97" s="5">
-        <v>867623050593079</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>869092052872394</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4"/>
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C98" s="5">
-        <v>867623050430298</v>
-      </c>
-      <c r="D98" s="6"/>
+        <v>868790051721758</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="4"/>
       <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -10698,12 +11175,15 @@
         <v>55</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c r="C99" s="5">
-        <v>867623050768614</v>
-      </c>
-      <c r="D99" s="6"/>
+        <v>868790051721493</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="4"/>
       <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -10711,123 +11191,150 @@
         <v>55</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="C100" s="5">
-        <v>867623050766196</v>
-      </c>
-      <c r="D100" s="6"/>
+        <v>869092053494370</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4"/>
       <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C101" s="5">
-        <v>869092052701213</v>
-      </c>
-      <c r="D101" s="6"/>
+        <v>869092053271398</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="4"/>
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="C102" s="5">
-        <v>869092051973094</v>
-      </c>
-      <c r="D102" s="6"/>
+        <v>869092053271174</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="4"/>
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="4">
-        <v>8</v>
+      <c r="B103" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C103" s="5">
-        <v>861180050568052</v>
-      </c>
-      <c r="D103" s="6"/>
+        <v>867623050406298</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="4"/>
       <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C104" s="5">
-        <v>869092053271257</v>
-      </c>
-      <c r="D104" s="6"/>
+        <v>867623050406538</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4"/>
       <c r="G104" s="9"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C105" s="5">
-        <v>869092052872394</v>
-      </c>
-      <c r="D105" s="6"/>
+        <v>86782050193097</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="4"/>
       <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C106" s="5">
-        <v>869092053172455</v>
-      </c>
-      <c r="D106" s="6"/>
+        <v>867623050768614</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4"/>
       <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C107" s="5">
-        <v>869092053271356</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>867623050766196</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4"/>
       <c r="G107" s="9"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="B108" s="4">
+        <v>8</v>
       </c>
       <c r="C108" s="5">
-        <v>869092053271430</v>
-      </c>
-      <c r="D108" s="6"/>
+        <v>861180050568052</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="4"/>
       <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="6"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -11284,6 +11791,10 @@
       <c r="C188" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E108"/>
+  <sortState ref="A2:C108">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11292,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11323,172 +11834,376 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053407232</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867872050072374</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050430611</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050430975</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050566497</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052994651</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052730436</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053128457</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053271778</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053170491</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052564991</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623050579771</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050430959</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050560011</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050566596</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050566133</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867872050070311</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867872050072572</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050508671</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050515155</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050515411</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050511154</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050515510</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050513473</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050513879</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050512970</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050511337</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050509935</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
@@ -12177,8 +12892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -41,13 +41,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'16'!$A$1:$E$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'19'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="200">
   <si>
     <t>Retail Name</t>
   </si>
@@ -543,6 +544,111 @@
   <si>
     <t xml:space="preserve">kabir//Ma Telecom </t>
   </si>
+  <si>
+    <t>Boishakhy Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Bismillah Naldanga</t>
+  </si>
+  <si>
+    <t>(c21-32)</t>
+  </si>
+  <si>
+    <t>(8-128)</t>
+  </si>
+  <si>
+    <t>(C25 S64)</t>
+  </si>
+  <si>
+    <t>Not Ok</t>
+  </si>
+  <si>
+    <t>Please don't Entry</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Kabir//Bina Moible</t>
+  </si>
+  <si>
+    <t>Kabir//Sohag mobile</t>
+  </si>
+  <si>
+    <t>Abc Communication</t>
+  </si>
+  <si>
+    <t>Kabir//Hiron Bagha</t>
+  </si>
+  <si>
+    <t>Kabir//Friends Bilmaria</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Rose OK</t>
+  </si>
+  <si>
+    <t>Old Deya Hoyese</t>
+  </si>
+  <si>
+    <t>Kabir//Sohel Store</t>
+  </si>
+  <si>
+    <t>kabir//Usha Electronics</t>
+  </si>
+  <si>
+    <t>(8Pro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashim Exclusive </t>
+  </si>
+  <si>
+    <t>Don’t Entry</t>
+  </si>
+  <si>
+    <t>SR Electronics</t>
+  </si>
+  <si>
+    <t>(8pro)</t>
+  </si>
+  <si>
+    <t>(C25 s128)</t>
+  </si>
+  <si>
+    <t>(25s-28)</t>
+  </si>
+  <si>
+    <t>Mobile Prak</t>
+  </si>
+  <si>
+    <t>Saju Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arham </t>
+  </si>
+  <si>
+    <t>kabir//Jafor//Inan</t>
+  </si>
+  <si>
+    <t>Kabir//Sakib One plus</t>
+  </si>
+  <si>
+    <t>Noor OK</t>
+  </si>
+  <si>
+    <t>SR OK</t>
+  </si>
+  <si>
+    <t>Siddik Telecom</t>
+  </si>
+  <si>
+    <t>Not-OK</t>
+  </si>
+  <si>
+    <t>Samim //Jafor</t>
+  </si>
 </sst>
 </file>
 
@@ -571,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +781,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9626,7 +9741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -11801,10 +11916,5082 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G189"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="E52:F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053407232</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867872050072374</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623050430611</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050430975</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050566497</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052994651</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052730436</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053128457</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053271778</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053170491</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052564991</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623050579771</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050430959</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050560011</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050566596</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050566133</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867872050070311</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867872050072572</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050508671</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050515155</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050515411</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050511154</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050515510</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050513473</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050513879</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050512970</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050511337</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050509935</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623050737551</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5">
+        <v>861180050566056</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050565457</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867023056283013</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050736678</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623050544932</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053497571</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092052554018</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050865436</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053488257</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053400294</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092053497217</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050428490</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050579938</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623050736652</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623050728550</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050385192</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5">
+        <v>861180050393311</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5">
+        <v>861180050386034</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="5">
+        <v>861180050564838</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="5">
+        <v>868790051811096</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="5">
+        <v>868790051721873</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="5">
+        <v>868790051721634</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623050411496</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623050562694</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623050583096</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623050562637</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623050565812</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623050719617</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050734939</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623050566273</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623050735456</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5">
+        <v>861180050386810</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="4">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>861180050565074</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5">
+        <v>867623050418871</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623050409854</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623050411512</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050420570</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050287235</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869092053176456</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867872050456650</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092052870216</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869092053271117</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092053272131</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="5">
+        <v>86870051721956</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="5">
+        <v>868790051139670</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5">
+        <v>868790051721899</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="4">
+        <v>8</v>
+      </c>
+      <c r="C77" s="5">
+        <v>861180050497377</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869092053094717</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869092053094675</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="5">
+        <v>868790051035753</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="5">
+        <v>867623050441014</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="5">
+        <v>867623050431015</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="5">
+        <v>867623050731091</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5">
+        <v>869092053269814</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="5">
+        <v>867623050411157</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="5">
+        <v>868790051721774</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="5">
+        <v>867623050566091</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="5">
+        <v>867623050489633</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="5">
+        <v>867623050502856</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5">
+        <v>867872050072259</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5">
+        <v>861180050638434</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="5">
+        <v>869092053271471</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="5">
+        <v>869092052774293</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="5">
+        <v>869092053176498</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="5">
+        <v>869092052771158</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="5">
+        <v>869092052700538</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4">
+        <v>8</v>
+      </c>
+      <c r="C97" s="5">
+        <v>861180050637212</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="5">
+        <v>867623050822296</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="4">
+        <v>8</v>
+      </c>
+      <c r="C99" s="5">
+        <v>861180050635877</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="4">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5">
+        <v>861180050638236</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="5">
+        <v>867623050516575</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="5">
+        <v>867623050503219</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="5">
+        <v>867623050516450</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="5">
+        <v>867623050514653</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="5">
+        <v>867623050504290</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="5">
+        <v>867623050510016</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="5">
+        <v>867623050503797</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="5">
+        <v>867623050503417</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="5">
+        <v>867623050515056</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="5">
+        <v>86762305051636</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="5">
+        <v>869092053271315</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="5">
+        <v>869092053270531</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="5">
+        <v>869092053419393</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="5">
+        <v>869092053420391</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="5">
+        <v>867623050494310</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="5">
+        <v>867623050507657</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5">
+        <v>867872050172299</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="5">
+        <v>867623050511634</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" s="5">
+        <v>867623050504498</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="5">
+        <v>867623050502930</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="5">
+        <v>867623050510099</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="5">
+        <v>867623050504993</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" s="5">
+        <v>867623050471490</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" s="5">
+        <v>867623050563437</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="5">
+        <v>867623050566679</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="5">
+        <v>867623050565259</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="5">
+        <v>867623050430496</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="4">
+        <v>8</v>
+      </c>
+      <c r="C128" s="5">
+        <v>861180050638251</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" s="4">
+        <v>8</v>
+      </c>
+      <c r="C129" s="5">
+        <v>861180050565132</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A69:D129">
+    <sortCondition ref="A69"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G214"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050859975</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623050504670</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052626691</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052619175</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051741178</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053497332</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053271596</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050429019</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050501775</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050504639</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050408259</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>861180050406311</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051518170</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867872050384332</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050719732</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867872050404577</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050490151</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050860171</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050503532</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050501692</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053094691</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050419770</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050287516</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050510974</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050729954</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050408135</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092052952196</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092053098718</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623050507913</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050504951</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5">
+        <v>861180050407053</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050565770</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623050565796</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623050566232</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092053487119</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092053423619</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053422975</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623050736611</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623050737957</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050863290</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050738450</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623050864959</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="8">
+        <v>868790051811054</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050407012</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867872050071079</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623050419515</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623050421537</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092053271570</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092052621312</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092052731137</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868790051740139</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="5">
+        <v>868790051740899</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="5">
+        <v>868790051556519</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="5">
+        <v>868790051555776</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092053496292</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092053423999</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869092051768155</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092051977970</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092052619712</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092052620454</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092053094477</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092053098437</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623050430777</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623050562033</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050826230</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050720235</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="4">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="5">
+        <v>868790051517057</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="5">
+        <v>868790051810890</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5">
+        <v>867623050509414</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5">
+        <v>867623050491175</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="5">
+        <v>867623050512871</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="5">
+        <v>867623050515452</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="5">
+        <v>867623050732453</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="5">
+        <v>867623050728998</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="5">
+        <v>861180050406279</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="4">
+        <v>8</v>
+      </c>
+      <c r="C79" s="5">
+        <v>861180050406477</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="4">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5">
+        <v>861180050407533</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="5">
+        <v>867623050493478</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="5">
+        <v>867623050515890</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="5">
+        <v>867623050489815</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="5">
+        <v>867623050492595</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="5">
+        <v>867623050729731</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="5">
+        <v>867623050729996</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="5">
+        <v>867623050724351</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="5">
+        <v>867623050730374</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="5">
+        <v>868790051741012</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="5">
+        <v>868790051515275</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="5">
+        <v>867623050494534</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="5">
+        <v>869092053418254</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="5">
+        <v>869092053420599</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="5">
+        <v>869092053418254</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="5">
+        <v>869092053420599</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="5">
+        <v>867623050508119</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623050729038</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="5">
+        <v>867623050866277</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="5">
+        <v>867623050729632</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="5">
+        <v>867623050504738</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="5">
+        <v>868790051739891</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="5">
+        <v>868790051036876</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="5">
+        <v>868790051740410</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="5">
+        <v>867623050489872</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="5">
+        <v>867623050504076</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="5">
+        <v>867623050509893</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="5">
+        <v>867623050508036</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="5">
+        <v>867623050507558</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="5">
+        <v>869092052701833</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="5">
+        <v>867823050768473</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="5">
+        <v>869092053987290</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="5">
+        <v>869092052627699</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5">
+        <v>869092053271810</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="5">
+        <v>869092053098676</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="5">
+        <v>867623050823252</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="5">
+        <v>867623050759258</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" s="4">
+        <v>8</v>
+      </c>
+      <c r="C117" s="5">
+        <v>861180050408416</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="5">
+        <v>867623050502179</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" s="5">
+        <v>867623050505438</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="5">
+        <v>867623050506899</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="5">
+        <v>867623050490219</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="5">
+        <v>867623050489732</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" s="5">
+        <v>867623050513770</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" s="5">
+        <v>867623050510438</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="5">
+        <v>867623050418897</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="5">
+        <v>867623050565499</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="5">
+        <v>867623050504977</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="5">
+        <v>867623050768796</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129" s="5">
+        <v>868790051739032</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="5">
+        <v>868790050756516</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="5">
+        <v>868790051739131</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132" s="5">
+        <v>868790051558192</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="5">
+        <v>867623050764019</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="5">
+        <v>869092053414774</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="5">
+        <v>869092052628051</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="5">
+        <v>869092053094394</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="5">
+        <v>867623050506972</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="5">
+        <v>867623050513978</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="5">
+        <v>867623050766717</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="5">
+        <v>867623050768333</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="5">
+        <v>868790051738174</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="5">
+        <v>867623050510354</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="5">
+        <v>867623050862771</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" s="5">
+        <v>867623050849075</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="5">
+        <v>867623050729897</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" s="5">
+        <v>867623050730515</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="5">
+        <v>867623050821850</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" s="5">
+        <v>867623050730457</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="4">
+        <v>8</v>
+      </c>
+      <c r="C151" s="5">
+        <v>861180050407434</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="5">
+        <v>867623050419630</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" s="5">
+        <v>867623050416032</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" s="16">
+        <v>867623053420557</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="16">
+        <v>867623053413594</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" s="5">
+        <v>867623050832253</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" s="5">
+        <v>867623050729673</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="16">
+        <v>86</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="5">
+        <v>869092052947790</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="5">
+        <v>869092052951297</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="5">
+        <v>869092053098411</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="5">
+        <v>868790051739230</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="5">
+        <v>868790051737713</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" s="5">
+        <v>867623050854232</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" s="5">
+        <v>867623050729095</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" s="5">
+        <v>867623050849273</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" s="5">
+        <v>867623050507632</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="4">
+        <v>8</v>
+      </c>
+      <c r="C168" s="5">
+        <v>861180050406857</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="5">
+        <v>868790051721857</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="5">
+        <v>868790051739172</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="5">
+        <v>868790051740618</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" s="5">
+        <v>867623050729111</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C173" s="5">
+        <v>867623050738815</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="5">
+        <v>869092053416977</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="5">
+        <v>869092052625412</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="5">
+        <v>869092053094550</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" s="4">
+        <v>8</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="5">
+        <v>867872050457278</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180" s="5">
+        <v>867623050504050</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C181" s="5">
+        <v>867623050428573</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C182" s="5">
+        <v>867623050560151</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C183" s="5">
+        <v>867623050507392</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C184" s="5">
+        <v>867623050566414</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185" s="5">
+        <v>867623050509398</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C186" s="5">
+        <v>867623050511550</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187" s="5">
+        <v>867623050507350</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C188" s="5">
+        <v>867623050494237</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C189" s="5">
+        <v>867623050490631</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" s="5">
+        <v>867623050730499</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C191" s="5">
+        <v>867623050854976</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="4">
+        <v>8</v>
+      </c>
+      <c r="C192" s="5">
+        <v>861180050407574</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="4">
+        <v>8</v>
+      </c>
+      <c r="C193" s="5">
+        <v>861180050407418</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194" s="4">
+        <v>8</v>
+      </c>
+      <c r="C194" s="5">
+        <v>861180050403292</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="5">
+        <v>868790051037759</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="5">
+        <v>868790051037635</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="5">
+        <v>869092053415250</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="5">
+        <v>869092053415177</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="5">
+        <v>868790051037759</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="5">
+        <v>868790051037635</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C201" s="5">
+        <v>867623050225771</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D200">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11834,376 +17021,172 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5">
-        <v>869092053407232</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>867872050072374</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="5">
-        <v>867623050430611</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="5">
-        <v>867623050430975</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5">
-        <v>867623050566497</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5">
-        <v>869092052994651</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5">
-        <v>869092052730436</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5">
-        <v>869092053128457</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5">
-        <v>869092053271778</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5">
-        <v>869092053170491</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5">
-        <v>869092052564991</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="8">
-        <v>867623050579771</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="5">
-        <v>867623050430959</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="5">
-        <v>867623050560011</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="5">
-        <v>867623050566596</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="5">
-        <v>867623050566133</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>867872050070311</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>867872050072572</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="5">
-        <v>867623050508671</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="5">
-        <v>867623050515155</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="5">
-        <v>867623050515411</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="5">
-        <v>867623050511154</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="5">
-        <v>867623050515510</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="5">
-        <v>867623050513473</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="5">
-        <v>867623050513879</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="5">
-        <v>867623050512970</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="5">
-        <v>867623050511337</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="5">
-        <v>867623050509935</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
@@ -12884,1776 +17867,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:D22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="202">
   <si>
     <t>Retail Name</t>
   </si>
@@ -649,6 +649,12 @@
   <si>
     <t>Samim //Jafor</t>
   </si>
+  <si>
+    <t>Pre OK</t>
+  </si>
+  <si>
+    <t>Zilani</t>
+  </si>
 </sst>
 </file>
 
@@ -14000,7 +14006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -16990,14 +16996,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -17021,285 +17027,563 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051738273</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051740857</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052953079</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092053098577</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053412778</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053420938</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050506352</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050503938</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050928770</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867872050405111</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050509877</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623050514992</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050489971</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050492751</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050505776</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092053420250</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053421175</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050710590</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050711150</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050580076</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050506717</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050731372</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790051738299</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053271638</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861180050561552</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050729970</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050738732</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050928432</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623050738658</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623050711234</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050940775</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050939272</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050943274</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623050905612</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623050942672</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623050954636</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050954610</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623050955799</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623050954693</v>
+      </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623050961219</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050723114</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050946913</v>
+      </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790051036033</v>
+      </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790050749735</v>
+      </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5">
+        <v>868790051557913</v>
+      </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790051556691</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="236">
   <si>
     <t>Retail Name</t>
   </si>
@@ -655,6 +655,108 @@
   <si>
     <t>Zilani</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bismillah </t>
+  </si>
+  <si>
+    <t>Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Mollah Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Mitali</t>
+  </si>
+  <si>
+    <t>Kabir//M,K Telecom</t>
+  </si>
+  <si>
+    <t>Sarkar Telecom</t>
+  </si>
+  <si>
+    <t>KABIR//MOOM Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Usha Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Nabila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-128) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c21-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C20a </t>
+  </si>
+  <si>
+    <t>(C20a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c20a) </t>
+  </si>
+  <si>
+    <t>(C25s64)</t>
+  </si>
+  <si>
+    <t>(c25s-128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c25s-128) </t>
+  </si>
+  <si>
+    <t>C20a/32</t>
+  </si>
+  <si>
+    <t>Kabir Telecom//Rofiqul</t>
+  </si>
+  <si>
+    <t>Kabir// Hafizur Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabir//Tutul </t>
+  </si>
+  <si>
+    <t>Usha Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Mobiam</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi</t>
+  </si>
+  <si>
+    <t>Kabir//Sikreeti</t>
+  </si>
+  <si>
+    <t>Arham Electronics</t>
+  </si>
+  <si>
+    <t>Zilnai</t>
+  </si>
+  <si>
+    <t>Previous Entred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zilani </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( c25s-64)</t>
+  </si>
+  <si>
+    <t>(25 S64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((C20a) </t>
+  </si>
+  <si>
+    <t>Momtaj Teleocm</t>
+  </si>
+  <si>
+    <t>(c25s64)</t>
+  </si>
 </sst>
 </file>
 
@@ -16996,15 +17098,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -17036,7 +17138,9 @@
       <c r="C2" s="5">
         <v>868790051738273</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -17048,7 +17152,9 @@
       <c r="C3" s="5">
         <v>868790051740857</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -17060,7 +17166,9 @@
       <c r="C4" s="5">
         <v>869092052953079</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -17072,7 +17180,9 @@
       <c r="C5" s="5">
         <v>869092053098577</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -17084,7 +17194,9 @@
       <c r="C6" s="5">
         <v>869092053412778</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -17096,7 +17208,9 @@
       <c r="C7" s="5">
         <v>869092053420938</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -17108,7 +17222,9 @@
       <c r="C8" s="5">
         <v>867623050506352</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -17120,7 +17236,9 @@
       <c r="C9" s="5">
         <v>867623050503938</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -17132,7 +17250,9 @@
       <c r="C10" s="5">
         <v>867623050928770</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -17144,7 +17264,9 @@
       <c r="C11" s="5">
         <v>867872050405111</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -17156,7 +17278,9 @@
       <c r="C12" s="5">
         <v>867623050509877</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -17168,7 +17292,9 @@
       <c r="C13" s="8">
         <v>867623050514992</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -17180,7 +17306,9 @@
       <c r="C14" s="5">
         <v>867623050489971</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -17192,7 +17320,9 @@
       <c r="C15" s="5">
         <v>867623050492751</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -17204,7 +17334,9 @@
       <c r="C16" s="5">
         <v>867623050505776</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -17216,7 +17348,9 @@
       <c r="C17" s="5">
         <v>869092053420250</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -17228,7 +17362,9 @@
       <c r="C18" s="5">
         <v>869092053421175</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -17240,7 +17376,9 @@
       <c r="C19" s="5">
         <v>867623050710590</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -17252,7 +17390,9 @@
       <c r="C20" s="5">
         <v>867623050711150</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -17264,7 +17404,9 @@
       <c r="C21" s="5">
         <v>867623050580076</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -17276,7 +17418,9 @@
       <c r="C22" s="5">
         <v>867623050506717</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -17288,7 +17432,9 @@
       <c r="C23" s="5">
         <v>867623050731372</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -17300,7 +17446,9 @@
       <c r="C24" s="5">
         <v>868790051738299</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -17312,7 +17460,9 @@
       <c r="C25" s="5">
         <v>869092053271638</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -17339,7 +17489,9 @@
       <c r="C27" s="5">
         <v>867623050729970</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -17351,7 +17503,9 @@
       <c r="C28" s="5">
         <v>867623050738732</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -17363,7 +17517,9 @@
       <c r="C29" s="5">
         <v>867623050928432</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17376,7 +17532,9 @@
       <c r="C30" s="5">
         <v>867623050738658</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -17388,7 +17546,9 @@
       <c r="C31" s="5">
         <v>867623050711234</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17401,7 +17561,9 @@
       <c r="C32" s="5">
         <v>867623050940775</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17414,7 +17576,9 @@
       <c r="C33" s="5">
         <v>867623050939272</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -17426,7 +17590,9 @@
       <c r="C34" s="5">
         <v>867623050943274</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -17438,7 +17604,9 @@
       <c r="C35" s="5">
         <v>867623050905612</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -17450,7 +17618,9 @@
       <c r="C36" s="5">
         <v>867623050942672</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -17462,7 +17632,9 @@
       <c r="C37" s="5">
         <v>867623050954636</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -17474,7 +17646,9 @@
       <c r="C38" s="5">
         <v>867623050954610</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -17486,7 +17660,9 @@
       <c r="C39" s="5">
         <v>867623050955799</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -17498,7 +17674,9 @@
       <c r="C40" s="5">
         <v>867623050954693</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -17510,7 +17688,9 @@
       <c r="C41" s="5">
         <v>867623050961219</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -17523,7 +17703,9 @@
       <c r="C42" s="5">
         <v>867623050723114</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -17536,7 +17718,9 @@
       <c r="C43" s="5">
         <v>867623050946913</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -17548,7 +17732,9 @@
       <c r="C44" s="5">
         <v>868790051036033</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -17560,7 +17746,9 @@
       <c r="C45" s="5">
         <v>868790050749735</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -17572,7 +17760,9 @@
       <c r="C46" s="5">
         <v>868790051557913</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -17584,567 +17774,1645 @@
       <c r="C47" s="5">
         <v>868790051556691</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623050946558</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092052627418</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092052953095</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623050959395</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623050505859</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867623050566737</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867623050505834</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623050959478</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623050563932</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623050928754</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623050710517</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050729053</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="5">
+        <v>868790051737697</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092053098379</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092052623938</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623050489591</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5">
+        <v>867623050435255</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869092053423338</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092053972011</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050959551</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869092053971179</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="5">
+        <v>867623050710939</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867623050294611</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="5">
+        <v>867623050962670</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5">
+        <v>867623050962654</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5">
+        <v>867623050962597</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="5">
+        <v>867623050959536</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="5">
+        <v>867623050732057</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="5">
+        <v>861180050392750</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="5">
+        <v>868790051740733</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869092053487234</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869092052619639</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092052624498</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="5">
+        <v>867623050956219</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="5">
+        <v>869092052619993</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="5">
+        <v>867623050733139</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="5">
+        <v>868790051412952</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="5">
+        <v>868790051739156</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="5">
+        <v>867623050959437</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="5">
+        <v>861180050437159</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="5">
+        <v>869092051977236</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="5">
+        <v>869092052621858</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="5">
+        <v>867623050562918</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="5">
+        <v>867623050505172</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="5">
+        <v>867623050490235</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="5">
+        <v>867623050506410</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="5">
+        <v>867623050962274</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="5">
+        <v>867623050710814</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="5">
+        <v>867623050710855</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623050928176</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="5">
+        <v>867623050728592</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="5">
+        <v>869092053094618</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="5">
+        <v>867623050505230</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="5">
+        <v>867623050504092</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="5">
+        <v>867623050939017</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="5">
+        <v>869092052621890</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="5">
+        <v>869092052626659</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="5">
+        <v>867623050507855</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="5">
+        <v>861180050408317</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="5">
+        <v>867623050942730</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="5">
+        <v>867623050580076</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="5">
+        <v>869092053424013</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="5">
+        <v>867623050503375</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="5">
+        <v>867623050928473</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="5">
+        <v>869092052620355</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="5">
+        <v>869092052627939</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="5">
+        <v>869092053987332</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="5">
+        <v>869092051978010</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="5">
+        <v>869092053093172</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="5">
+        <v>867623050505479</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="5">
+        <v>867623050430918</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" s="5">
+        <v>868790051558176</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" s="5">
+        <v>868790051557558</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="5">
+        <v>868790051557277</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="5">
+        <v>867872050456437</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="5">
+        <v>867623050928556</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="5">
+        <v>867623050710772</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="5">
+        <v>867623050945691</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="5">
+        <v>867623050947036</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="5">
+        <v>867623050946756</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="5">
+        <v>867623050509810</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="5">
+        <v>867623050711358</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="5">
+        <v>867623050825299</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" s="5">
+        <v>867623050946871</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="5">
+        <v>869092053098171</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="5">
+        <v>869092053094758</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="5">
+        <v>867623050513838</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="5">
+        <v>867623050492553</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
@@ -18152,6 +19420,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D22"/>
+  <sortState ref="A48:D130">
+    <sortCondition ref="A48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19059,17 +20330,17 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -19092,852 +20363,2893 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092053746571</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053746431</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053746134</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050691870</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051103654</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050943555</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051051655</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051045152</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050430199</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053092497</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052951354</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053414931</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053423114</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092053098353</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623051077478</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623051070135</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051078195</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051065895</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623051079532</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051080712</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="8">
+        <v>867623051067198</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050946673</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050947135</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050710533</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050946939</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050946798</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868790051609631</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790051609193</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868790051515838</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790051606694</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051607676</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790051145818</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790051513254</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790051608070</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053971195</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092053272339</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050943514</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623050419093</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="5">
+        <v>868790051556634</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790051557533</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790051288477</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051280573</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790051303136</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051078039</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623051066232</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623051080670</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623051066398</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623051079433</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051078815</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="5">
+        <v>861180050753878</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="5">
+        <v>861180050689858</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="5">
+        <v>861180050690153</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053272479</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051040633</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623051034214</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623051037514</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092052528176</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623051065937</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623051112176</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623051037472</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867623051036417</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092053412638</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="5">
+        <v>867623051110170</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623050579052</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092053414733</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050225375</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050943555</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="5">
+        <v>867623051108778</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="5">
+        <v>868790051557574</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="5">
+        <v>868790051556394</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="5">
+        <v>868790051283551</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="5">
+        <v>868790051556238</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="5">
+        <v>868790051557459</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="5">
+        <v>867623051078278</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="5">
+        <v>867623051077593</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="5">
+        <v>867623051077932</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="5">
+        <v>867623051078674</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="5">
+        <v>861180050690476</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092053362791</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="5">
+        <v>869092053498314</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="5">
+        <v>869092053419559</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="5">
+        <v>869092051975230</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="5">
+        <v>869092053407851</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4">
+        <v>8</v>
+      </c>
+      <c r="C85" s="5">
+        <v>861180050746930</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="4">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>861180050752557</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4">
+        <v>8</v>
+      </c>
+      <c r="C87" s="5">
+        <v>861180050690971</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="4">
+        <v>8</v>
+      </c>
+      <c r="C88" s="5">
+        <v>861180050690898</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>861180050691375</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="5">
+        <v>868790051556576</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="5">
+        <v>868790051741079</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="5">
+        <v>868790051608377</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="5">
+        <v>867623051037175</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="5">
+        <v>867623051037498</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="5">
+        <v>867623051036250</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="5">
+        <v>867623051034511</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623051040070</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="5">
+        <v>867623050962571</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="5">
+        <v>867623051112234</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="5">
+        <v>867623051112473</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="5">
+        <v>867623051108919</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="5">
+        <v>867623050891739</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="5">
+        <v>869092053745110</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="5">
+        <v>869092053747777</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="5">
+        <v>869092053970395</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="5">
+        <v>869092052700835</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="5">
+        <v>869092053746670</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="5">
+        <v>867623051111517</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="5">
+        <v>867623051110410</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="5">
+        <v>867623051112093</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="5">
+        <v>869092053746738</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="5">
+        <v>869092053747470</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="4">
+        <v>8</v>
+      </c>
+      <c r="C113" s="5">
+        <v>861180050748878</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="4">
+        <v>8</v>
+      </c>
+      <c r="C114" s="5">
+        <v>861180050691235</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="4">
+        <v>8</v>
+      </c>
+      <c r="C115" s="5">
+        <v>861180050689098</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="4">
+        <v>8</v>
+      </c>
+      <c r="C116" s="5">
+        <v>861180050691110</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="4">
+        <v>8</v>
+      </c>
+      <c r="C117" s="5">
+        <v>861180050747391</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="5">
+        <v>867623050711218</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" s="5">
+        <v>867623050733097</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="5">
+        <v>868790051608674</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="5">
+        <v>868790051600895</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="5">
+        <v>869092053746399</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="5">
+        <v>869092053746530</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" s="4">
+        <v>8</v>
+      </c>
+      <c r="C124" s="5">
+        <v>861180050747698</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="4">
+        <v>8</v>
+      </c>
+      <c r="C125" s="5">
+        <v>861180050747490</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="5">
+        <v>869092052621056</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="5">
+        <v>869092052621155</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="5">
+        <v>869092052621775</v>
+      </c>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="5">
+        <v>869092052620553</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="5">
+        <v>869092052622476</v>
+      </c>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="5">
+        <v>869092052623391</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="5">
+        <v>869092052622757</v>
+      </c>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="5">
+        <v>869092052622435</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="5">
+        <v>869092052620157</v>
+      </c>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="5">
+        <v>869092052621536</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="5">
+        <v>867623051111699</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="5">
+        <v>867623051111475</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="5">
+        <v>867623051112077</v>
+      </c>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="5">
+        <v>867623051112150</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" s="5">
+        <v>867623051112291</v>
+      </c>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" s="5">
+        <v>867623051111590</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="5">
+        <v>867623051112432</v>
+      </c>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="5">
+        <v>867623051111913</v>
+      </c>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" s="5">
+        <v>867623051109552</v>
+      </c>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C145" s="5">
+        <v>867623051110253</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="5">
+        <v>867623051112457</v>
+      </c>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="5">
+        <v>867623051049832</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148" s="5">
+        <v>867623051110295</v>
+      </c>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="5">
+        <v>867623051110394</v>
+      </c>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="5">
+        <v>867623051044619</v>
+      </c>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="5">
+        <v>867623051110238</v>
+      </c>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="5">
+        <v>867623051045392</v>
+      </c>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" s="5">
+        <v>867623051045632</v>
+      </c>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="5">
+        <v>867623051108273</v>
+      </c>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="5">
+        <v>867623051109313</v>
+      </c>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" s="5">
+        <v>867623051080654</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C157" s="5">
+        <v>867623051080738</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="5">
+        <v>861180050690716</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C159" s="5">
+        <v>867623051070457</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" s="5">
+        <v>867623051078872</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C161" s="5">
+        <v>867623051077437</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="5">
+        <v>867623051080597</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" s="5">
+        <v>867872050456254</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C164" s="5">
+        <v>867872050455876</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="5">
+        <v>869092052951891</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" s="5">
+        <v>861180050753696</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="5">
+        <v>861180050690559</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="5">
+        <v>867872050307317</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" s="5">
+        <v>869092052951859</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="5">
+        <v>868790051609094</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="5">
+        <v>868790051037197</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="5">
+        <v>868790051601034</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="5">
+        <v>868790051600911</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C174" s="5">
+        <v>867623051109073</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C175" s="5">
+        <v>867623051109438</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176" s="5">
+        <v>867623051109578</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C177" s="5">
+        <v>867623051109032</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="5">
+        <v>867623051107754</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="4">
+        <v>8</v>
+      </c>
+      <c r="C179" s="5">
+        <v>861180050690534</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="4">
+        <v>8</v>
+      </c>
+      <c r="C180" s="5">
+        <v>861180050690112</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" s="5">
+        <v>869092051977012</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" s="5">
+        <v>869092051978135</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183" s="5">
+        <v>869092051973557</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C184" s="5">
+        <v>867623051108257</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185" s="5">
+        <v>867623051109370</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C186" s="5">
+        <v>867623051107978</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="5">
+        <v>868790051609219</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="5">
+        <v>868790051609417</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="5">
+        <v>868790051608831</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C190" s="5">
+        <v>869092053419518</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C191" s="5">
+        <v>869092052947477</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C192" s="5">
+        <v>869092053417231</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" s="5">
+        <v>867623051065838</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="5">
+        <v>869092053419237</v>
+      </c>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B195" s="4">
+        <v>8</v>
+      </c>
+      <c r="C195" s="5">
+        <v>869092053972110</v>
+      </c>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="5">
+        <v>861180050691755</v>
+      </c>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C197" s="5">
+        <v>867623051107937</v>
+      </c>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198" s="5">
+        <v>867623051040591</v>
+      </c>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" s="5">
+        <v>867623051021211</v>
+      </c>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C200" s="5">
+        <v>867623051020692</v>
+      </c>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201" s="5">
+        <v>867623051037076</v>
+      </c>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C202" s="5">
+        <v>867623051020510</v>
+      </c>
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C203" s="5">
+        <v>867623051020478</v>
+      </c>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" s="5">
+        <v>867623051019991</v>
+      </c>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C205" s="5">
+        <v>867623051037332</v>
+      </c>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C206" s="5">
+        <v>867623051037019</v>
+      </c>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C207" s="5">
+        <v>867623051036896</v>
+      </c>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="A156:C169">
+    <sortCondition ref="A156"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -44,11 +44,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'19'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="240">
   <si>
     <t>Retail Name</t>
   </si>
@@ -757,6 +758,18 @@
   <si>
     <t>(c25s64)</t>
   </si>
+  <si>
+    <t>Kabir//Bina</t>
+  </si>
+  <si>
+    <t>kabir//farha Bagatipara</t>
+  </si>
+  <si>
+    <t>Kabir//Barsha</t>
+  </si>
+  <si>
+    <t>kabir//moriam</t>
+  </si>
 </sst>
 </file>
 
@@ -20330,10 +20343,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22178,7 +22191,9 @@
       <c r="C126" s="5">
         <v>869092052621056</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -22190,7 +22205,9 @@
       <c r="C127" s="5">
         <v>869092052621155</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
@@ -22202,7 +22219,9 @@
       <c r="C128" s="5">
         <v>869092052621775</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
@@ -22214,7 +22233,9 @@
       <c r="C129" s="5">
         <v>869092052620553</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
@@ -22226,7 +22247,9 @@
       <c r="C130" s="5">
         <v>869092052622476</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -22238,7 +22261,9 @@
       <c r="C131" s="5">
         <v>869092052623391</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
@@ -22250,7 +22275,9 @@
       <c r="C132" s="5">
         <v>869092052622757</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -22262,7 +22289,9 @@
       <c r="C133" s="5">
         <v>869092052622435</v>
       </c>
-      <c r="D133" s="6"/>
+      <c r="D133" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -22274,7 +22303,9 @@
       <c r="C134" s="5">
         <v>869092052620157</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -22286,7 +22317,9 @@
       <c r="C135" s="5">
         <v>869092052621536</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -22298,7 +22331,9 @@
       <c r="C136" s="5">
         <v>867623051111699</v>
       </c>
-      <c r="D136" s="6"/>
+      <c r="D136" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -22310,7 +22345,9 @@
       <c r="C137" s="5">
         <v>867623051111475</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -22322,7 +22359,9 @@
       <c r="C138" s="5">
         <v>867623051112077</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -22334,7 +22373,9 @@
       <c r="C139" s="5">
         <v>867623051112150</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
@@ -22346,7 +22387,9 @@
       <c r="C140" s="5">
         <v>867623051112291</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -22358,7 +22401,9 @@
       <c r="C141" s="5">
         <v>867623051111590</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
@@ -22370,7 +22415,9 @@
       <c r="C142" s="5">
         <v>867623051112432</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -22382,7 +22429,9 @@
       <c r="C143" s="5">
         <v>867623051111913</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -22394,7 +22443,9 @@
       <c r="C144" s="5">
         <v>867623051109552</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -22406,7 +22457,9 @@
       <c r="C145" s="5">
         <v>867623051110253</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
@@ -22418,7 +22471,9 @@
       <c r="C146" s="5">
         <v>867623051112457</v>
       </c>
-      <c r="D146" s="6"/>
+      <c r="D146" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -22430,7 +22485,9 @@
       <c r="C147" s="5">
         <v>867623051049832</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -22442,7 +22499,9 @@
       <c r="C148" s="5">
         <v>867623051110295</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
@@ -22454,7 +22513,9 @@
       <c r="C149" s="5">
         <v>867623051110394</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
@@ -22466,7 +22527,9 @@
       <c r="C150" s="5">
         <v>867623051044619</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -22478,7 +22541,9 @@
       <c r="C151" s="5">
         <v>867623051110238</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
@@ -22490,7 +22555,9 @@
       <c r="C152" s="5">
         <v>867623051045392</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
@@ -22502,7 +22569,9 @@
       <c r="C153" s="5">
         <v>867623051045632</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -22514,7 +22583,9 @@
       <c r="C154" s="5">
         <v>867623051108273</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -22526,7 +22597,9 @@
       <c r="C155" s="5">
         <v>867623051109313</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -23070,7 +23143,9 @@
       <c r="C194" s="5">
         <v>869092053419237</v>
       </c>
-      <c r="D194" s="6"/>
+      <c r="D194" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -23082,7 +23157,9 @@
       <c r="C195" s="5">
         <v>869092053972110</v>
       </c>
-      <c r="D195" s="6"/>
+      <c r="D195" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
@@ -23094,7 +23171,9 @@
       <c r="C196" s="5">
         <v>861180050691755</v>
       </c>
-      <c r="D196" s="6"/>
+      <c r="D196" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
@@ -23106,7 +23185,9 @@
       <c r="C197" s="5">
         <v>867623051107937</v>
       </c>
-      <c r="D197" s="6"/>
+      <c r="D197" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
@@ -23118,7 +23199,9 @@
       <c r="C198" s="5">
         <v>867623051040591</v>
       </c>
-      <c r="D198" s="6"/>
+      <c r="D198" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -23130,7 +23213,9 @@
       <c r="C199" s="5">
         <v>867623051021211</v>
       </c>
-      <c r="D199" s="6"/>
+      <c r="D199" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
@@ -23142,7 +23227,9 @@
       <c r="C200" s="5">
         <v>867623051020692</v>
       </c>
-      <c r="D200" s="6"/>
+      <c r="D200" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
@@ -23154,7 +23241,9 @@
       <c r="C201" s="5">
         <v>867623051037076</v>
       </c>
-      <c r="D201" s="6"/>
+      <c r="D201" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
@@ -23166,7 +23255,9 @@
       <c r="C202" s="5">
         <v>867623051020510</v>
       </c>
-      <c r="D202" s="6"/>
+      <c r="D202" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
@@ -23178,7 +23269,9 @@
       <c r="C203" s="5">
         <v>867623051020478</v>
       </c>
-      <c r="D203" s="6"/>
+      <c r="D203" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -23190,7 +23283,9 @@
       <c r="C204" s="5">
         <v>867623051019991</v>
       </c>
-      <c r="D204" s="6"/>
+      <c r="D204" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
@@ -23202,7 +23297,9 @@
       <c r="C205" s="5">
         <v>867623051037332</v>
       </c>
-      <c r="D205" s="6"/>
+      <c r="D205" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
@@ -23214,7 +23311,9 @@
       <c r="C206" s="5">
         <v>867623051037019</v>
       </c>
-      <c r="D206" s="6"/>
+      <c r="D206" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
@@ -23226,25 +23325,847 @@
       <c r="C207" s="5">
         <v>867623051036896</v>
       </c>
-      <c r="D207" s="6"/>
+      <c r="D207" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="6"/>
+      <c r="A208" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C208" s="5">
+        <v>869092053419732</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="6"/>
+      <c r="A209" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C209" s="5">
+        <v>869092053419658</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="6"/>
+      <c r="A210" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C210" s="5">
+        <v>869092053413412</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C211" s="5">
+        <v>867872050382351</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" s="5">
+        <v>869092052947436</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="5">
+        <v>869092053747298</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" s="5">
+        <v>869092053742174</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="5">
+        <v>869092052947196</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="5">
+        <v>869092052950992</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="5">
+        <v>869092053747637</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" s="5">
+        <v>869092053746274</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C219" s="5">
+        <v>867623050961730</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220" s="5">
+        <v>867623051070150</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="5">
+        <v>867623051107697</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="4">
+        <v>8</v>
+      </c>
+      <c r="C222" s="5">
+        <v>861180050691797</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="4">
+        <v>8</v>
+      </c>
+      <c r="C223" s="5">
+        <v>861180050691631</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="5">
+        <v>867872050383490</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C225" s="5">
+        <v>867623050938993</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B226" s="4">
+        <v>8</v>
+      </c>
+      <c r="C226" s="5">
+        <v>861180050690054</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="5">
+        <v>869092053272255</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="5">
+        <v>869092053272396</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="5">
+        <v>869092053273790</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C230" s="5">
+        <v>867623051112416</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C231" s="5">
+        <v>867623051103555</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C232" s="5">
+        <v>867623051109917</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C233" s="5">
+        <v>867623051112499</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="5">
+        <v>869092053272693</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="5">
+        <v>869092053272990</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236" s="5">
+        <v>869092053415433</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C237" s="5">
+        <v>867623050505792</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="5">
+        <v>869092053272610</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B239" s="4">
+        <v>8</v>
+      </c>
+      <c r="C239" s="5">
+        <v>861180050754512</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="5">
+        <v>869092052620819</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C241" s="5">
+        <v>867623050952572</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="5">
+        <v>869092052628176</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="6"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="6"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="6"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="6"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="6"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="6"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="6"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="6"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="6"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A156:C169">

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'19'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="287">
   <si>
     <t>Retail Name</t>
   </si>
@@ -528,9 +527,6 @@
     <t>(c25s/128)</t>
   </si>
   <si>
-    <t>Don't Input</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (c21-64) </t>
   </si>
   <si>
@@ -562,9 +558,6 @@
   </si>
   <si>
     <t>Not Ok</t>
-  </si>
-  <si>
-    <t>Please don't Entry</t>
   </si>
   <si>
     <t>Zam Zam Multi Brand</t>
@@ -604,9 +597,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ashim Exclusive </t>
-  </si>
-  <si>
-    <t>Don’t Entry</t>
   </si>
   <si>
     <t>SR Electronics</t>
@@ -649,9 +639,6 @@
   </si>
   <si>
     <t>Samim //Jafor</t>
-  </si>
-  <si>
-    <t>Pre OK</t>
   </si>
   <si>
     <t>Zilani</t>
@@ -738,9 +725,6 @@
     <t>Zilnai</t>
   </si>
   <si>
-    <t>Previous Entred</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zilani </t>
   </si>
   <si>
@@ -770,6 +754,162 @@
   <si>
     <t>kabir//moriam</t>
   </si>
+  <si>
+    <t>Arham</t>
+  </si>
+  <si>
+    <t>Zamzam</t>
+  </si>
+  <si>
+    <t>Sonia mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bina mobile </t>
+  </si>
+  <si>
+    <t>Moom telecom</t>
+  </si>
+  <si>
+    <t>(C25 s64)</t>
+  </si>
+  <si>
+    <t>(C25 S64</t>
+  </si>
+  <si>
+    <t>Bismillah</t>
+  </si>
+  <si>
+    <t>Kabir // Barsha Telecom</t>
+  </si>
+  <si>
+    <t>Dighi Mobile</t>
+  </si>
+  <si>
+    <t>((C25 64)</t>
+  </si>
+  <si>
+    <t>Papon Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Alamin</t>
+  </si>
+  <si>
+    <t>Shohan Telecom</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>imran Tel//Kabir Telecom</t>
+  </si>
+  <si>
+    <t>c d sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molla Mobile </t>
+  </si>
+  <si>
+    <t>Momtaj tel</t>
+  </si>
+  <si>
+    <t>Friends mob</t>
+  </si>
+  <si>
+    <t>Biswash mob</t>
+  </si>
+  <si>
+    <t>Galaxy mob</t>
+  </si>
+  <si>
+    <t>The Dhaka //Kabir</t>
+  </si>
+  <si>
+    <t>Faruk Naldan//Kabir</t>
+  </si>
+  <si>
+    <t>Bhai Bahi Halsa//Kabir</t>
+  </si>
+  <si>
+    <t>Mimi Electronics</t>
+  </si>
+  <si>
+    <t>Tuhin</t>
+  </si>
+  <si>
+    <t>Biswass</t>
+  </si>
+  <si>
+    <t>Bhuiyan</t>
+  </si>
+  <si>
+    <t>kabir</t>
+  </si>
+  <si>
+    <t>(c25s-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose </t>
+  </si>
+  <si>
+    <t>Hello natore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-128</t>
+  </si>
+  <si>
+    <t>sohan ent</t>
+  </si>
+  <si>
+    <t>Sarkar tel</t>
+  </si>
+  <si>
+    <t>Kabir//GD Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismillah  mobile </t>
+  </si>
+  <si>
+    <t>Borsha Computer</t>
+  </si>
+  <si>
+    <t>Boishakhi tel</t>
+  </si>
+  <si>
+    <t>Apurbo</t>
+  </si>
+  <si>
+    <t>Dighi</t>
+  </si>
+  <si>
+    <t>(C25 s228)</t>
+  </si>
+  <si>
+    <t>(C25 s138)</t>
+  </si>
+  <si>
+    <t>Gstore</t>
+  </si>
+  <si>
+    <t>Noor tel</t>
+  </si>
+  <si>
+    <t>Dipto mob</t>
+  </si>
+  <si>
+    <t>Hriddro mob</t>
+  </si>
+  <si>
+    <t>Kabir//Saife Bhai</t>
+  </si>
+  <si>
+    <t>Kabir//Tutul DSR</t>
+  </si>
+  <si>
+    <t>Sarkar</t>
+  </si>
+  <si>
+    <t>Mimi</t>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +938,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +957,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -854,11 +1012,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,6 +1073,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5503,7 +5696,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7191,22 +7384,46 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050400879</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050431031</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="24">
+        <v>861180050567096</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -7853,8 +8070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7930,7 +8147,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="5">
         <v>869092052774475</v>
@@ -7944,7 +8161,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5">
         <v>869092052872535</v>
@@ -8439,7 +8656,7 @@
         <v>124</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5">
         <v>869694052023157</v>
@@ -8529,7 +8746,7 @@
         <v>867872050170814</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8549,7 +8766,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>38</v>
@@ -9015,7 +9232,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="5">
         <v>869092052771398</v>
@@ -9030,7 +9247,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="5">
         <v>869092052775910</v>
@@ -9240,7 +9457,7 @@
         <v>55</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="5">
         <v>869092052850838</v>
@@ -9862,8 +10079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9921,7 +10138,7 @@
         <v>869092052729834</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -10696,8 +10913,8 @@
       <c r="C54" s="5">
         <v>867623050825216</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>152</v>
+      <c r="D54" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="E54" s="4"/>
       <c r="G54" s="9"/>
@@ -11257,7 +11474,7 @@
         <v>867623050560730</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E89" s="4"/>
       <c r="G89" s="9"/>
@@ -11353,7 +11570,7 @@
         <v>869092053172455</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E95" s="4"/>
       <c r="G95" s="9"/>
@@ -11369,7 +11586,7 @@
         <v>869092053271356</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E96" s="4"/>
       <c r="G96" s="9"/>
@@ -11401,7 +11618,7 @@
         <v>868790051721758</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E98" s="4"/>
       <c r="G98" s="9"/>
@@ -11417,7 +11634,7 @@
         <v>868790051721493</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E99" s="4"/>
       <c r="G99" s="9"/>
@@ -11449,7 +11666,7 @@
         <v>869092053271398</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E101" s="4"/>
       <c r="G101" s="9"/>
@@ -11465,7 +11682,7 @@
         <v>869092053271174</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4"/>
       <c r="G102" s="9"/>
@@ -11481,7 +11698,7 @@
         <v>867623050406298</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E103" s="4"/>
       <c r="G103" s="9"/>
@@ -11561,7 +11778,7 @@
         <v>861180050568052</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E108" s="4"/>
       <c r="G108" s="9"/>
@@ -12039,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F52" sqref="E52:F52"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12183,7 +12400,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -12197,7 +12414,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -12211,7 +12428,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -12225,7 +12442,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>113</v>
@@ -12239,7 +12456,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>113</v>
@@ -12253,7 +12470,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>113</v>
@@ -12267,7 +12484,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>113</v>
@@ -12281,7 +12498,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>113</v>
@@ -12295,7 +12512,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -12309,7 +12526,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -12465,7 +12682,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>143</v>
@@ -12479,7 +12696,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>98</v>
@@ -12518,7 +12735,7 @@
         <v>867023056283013</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12540,7 +12757,7 @@
         <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="5">
         <v>867623050544932</v>
@@ -12551,7 +12768,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>28</v>
@@ -12565,7 +12782,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -12579,7 +12796,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>147</v>
@@ -12610,7 +12827,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5">
         <v>869092053400294</v>
@@ -12738,13 +12955,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="5">
         <v>861180050564838</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13032,7 +13249,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>8</v>
@@ -13055,8 +13272,8 @@
       <c r="C70" s="5">
         <v>867872050456650</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>171</v>
+      <c r="D70" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="G70" s="9"/>
     </row>
@@ -13116,7 +13333,7 @@
         <v>86870051721956</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G74" s="9"/>
     </row>
@@ -13197,7 +13414,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>15</v>
@@ -13212,7 +13429,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>43</v>
@@ -13227,7 +13444,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>43</v>
@@ -13242,7 +13459,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>69</v>
@@ -13257,7 +13474,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>22</v>
@@ -13272,7 +13489,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>43</v>
@@ -13287,7 +13504,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>19</v>
@@ -13302,7 +13519,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>113</v>
@@ -13325,8 +13542,8 @@
       <c r="C88" s="5">
         <v>867623050489633</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>179</v>
+      <c r="D88" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="G88" s="9"/>
     </row>
@@ -13340,8 +13557,8 @@
       <c r="C89" s="5">
         <v>867623050502856</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>179</v>
+      <c r="D89" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="G89" s="9"/>
     </row>
@@ -13692,7 +13909,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>16</v>
@@ -13707,7 +13924,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>16</v>
@@ -13721,7 +13938,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>43</v>
@@ -13735,7 +13952,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>43</v>
@@ -14121,8 +14338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A163" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14130,7 +14347,7 @@
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -14254,7 +14471,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5">
         <v>867623050429019</v>
@@ -14268,7 +14485,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5">
         <v>867623050501775</v>
@@ -14282,7 +14499,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5">
         <v>867623050504639</v>
@@ -14338,7 +14555,7 @@
         <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C15" s="5">
         <v>867872050384332</v>
@@ -14352,7 +14569,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="5">
         <v>867623050719732</v>
@@ -14363,13 +14580,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
@@ -14377,16 +14594,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" s="5">
         <v>867872050404577</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>185</v>
+      <c r="D18" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -14469,8 +14686,8 @@
       <c r="C24" s="5">
         <v>867623050419770</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>195</v>
+      <c r="D24" s="19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -14483,8 +14700,8 @@
       <c r="C25" s="5">
         <v>867623050287516</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>196</v>
+      <c r="D25" s="19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -14521,7 +14738,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="5">
         <v>861180050408135</v>
@@ -15120,7 +15337,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>10</v>
@@ -15237,7 +15454,7 @@
         <v>45</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C77" s="5">
         <v>867623050728998</v>
@@ -15252,7 +15469,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" s="5">
         <v>861180050406279</v>
@@ -15534,7 +15751,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>69</v>
@@ -15594,7 +15811,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>15</v>
@@ -15609,7 +15826,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -15624,7 +15841,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>19</v>
@@ -15639,7 +15856,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>43</v>
@@ -15738,13 +15955,13 @@
         <v>867823050768473</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>22</v>
@@ -15759,7 +15976,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>22</v>
@@ -15774,7 +15991,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>22</v>
@@ -15789,7 +16006,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>22</v>
@@ -15804,7 +16021,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>69</v>
@@ -15819,7 +16036,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>140</v>
@@ -15833,7 +16050,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B117" s="4">
         <v>8</v>
@@ -15847,7 +16064,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>113</v>
@@ -15861,7 +16078,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>113</v>
@@ -15875,7 +16092,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>113</v>
@@ -15889,7 +16106,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>113</v>
@@ -15903,7 +16120,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>113</v>
@@ -15917,7 +16134,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>113</v>
@@ -15931,7 +16148,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>113</v>
@@ -15945,7 +16162,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>113</v>
@@ -15959,7 +16176,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>113</v>
@@ -15973,7 +16190,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>113</v>
@@ -15987,7 +16204,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>69</v>
@@ -16071,13 +16288,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>10</v>
@@ -16085,13 +16302,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>10</v>
@@ -16099,7 +16316,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>76</v>
@@ -16113,7 +16330,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>115</v>
@@ -16127,7 +16344,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>38</v>
@@ -16141,7 +16358,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>144</v>
@@ -16155,7 +16372,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>144</v>
@@ -16169,7 +16386,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>143</v>
@@ -16183,7 +16400,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>143</v>
@@ -16197,7 +16414,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>61</v>
@@ -16211,7 +16428,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>144</v>
@@ -16225,7 +16442,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>143</v>
@@ -16360,7 +16577,7 @@
         <v>867623053420557</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -16374,7 +16591,7 @@
         <v>867623053413594</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -16533,7 +16750,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>113</v>
@@ -16679,7 +16896,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>10</v>
@@ -16693,7 +16910,7 @@
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>10</v>
@@ -17009,7 +17226,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>43</v>
@@ -17111,8 +17328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17488,7 +17705,7 @@
         <v>861180050561552</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -17637,7 +17854,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>113</v>
@@ -17651,7 +17868,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>113</v>
@@ -17665,7 +17882,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>113</v>
@@ -17679,7 +17896,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>113</v>
@@ -17693,7 +17910,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>113</v>
@@ -17708,7 +17925,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>113</v>
@@ -17723,7 +17940,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>113</v>
@@ -17737,7 +17954,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
@@ -17751,7 +17968,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>19</v>
@@ -17765,7 +17982,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
@@ -17779,7 +17996,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>19</v>
@@ -17796,7 +18013,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C48" s="5">
         <v>867623050946558</v>
@@ -17810,7 +18027,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="5">
         <v>869092052627418</v>
@@ -17821,10 +18038,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" s="5">
         <v>869092052953095</v>
@@ -17924,10 +18141,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C57" s="5">
         <v>867623050928754</v>
@@ -17939,10 +18156,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C58" s="5">
         <v>867623050710517</v>
@@ -17954,10 +18171,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C59" s="5">
         <v>867623050729053</v>
@@ -17969,7 +18186,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>37</v>
@@ -17984,10 +18201,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="5">
         <v>869092053098379</v>
@@ -17999,10 +18216,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="5">
         <v>869092052623938</v>
@@ -18062,7 +18279,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" s="5">
         <v>869092053972011</v>
@@ -18107,7 +18324,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C69" s="5">
         <v>867623050710939</v>
@@ -18127,8 +18344,8 @@
       <c r="C70" s="5">
         <v>867623050294611</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>152</v>
+      <c r="D70" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G70" s="9"/>
     </row>
@@ -18212,22 +18429,22 @@
         <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="5">
         <v>861180050392750</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>152</v>
+      <c r="D76" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C77" s="5">
         <v>868790051740733</v>
@@ -18242,7 +18459,7 @@
         <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="5">
         <v>869092053487234</v>
@@ -18257,7 +18474,7 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5">
         <v>869092052619639</v>
@@ -18272,7 +18489,7 @@
         <v>17</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="5">
         <v>869092052624498</v>
@@ -18299,7 +18516,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>38</v>
@@ -18314,7 +18531,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>143</v>
@@ -18329,25 +18546,25 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C84" s="5">
         <v>868790051412952</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>152</v>
+      <c r="D84" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C85" s="5">
         <v>868790051739156</v>
@@ -18359,7 +18576,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>144</v>
@@ -18374,7 +18591,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>98</v>
@@ -18382,44 +18599,44 @@
       <c r="C87" s="5">
         <v>861180050437159</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>152</v>
+      <c r="D87" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="5">
+      <c r="A88" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="16">
         <v>869092051977236</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C89" s="5">
+      <c r="A89" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="22">
         <v>869092052621858</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>144</v>
@@ -18434,7 +18651,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>144</v>
@@ -18449,7 +18666,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>144</v>
@@ -18464,7 +18681,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>144</v>
@@ -18479,7 +18696,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>144</v>
@@ -18494,7 +18711,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>143</v>
@@ -18509,7 +18726,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>143</v>
@@ -18524,7 +18741,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>143</v>
@@ -18542,7 +18759,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C98" s="5">
         <v>867623050728592</v>
@@ -18554,7 +18771,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>29</v>
@@ -18569,10 +18786,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C100" s="5">
         <v>867623050505230</v>
@@ -18584,10 +18801,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C101" s="5">
         <v>867623050504092</v>
@@ -18698,16 +18915,16 @@
         <v>867623050580076</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="5">
         <v>869092053424013</v>
@@ -18719,10 +18936,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="5">
         <v>867623050503375</v>
@@ -18734,7 +18951,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>143</v>
@@ -18827,7 +19044,7 @@
         <v>66</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C117" s="5">
         <v>867623050505479</v>
@@ -18842,7 +19059,7 @@
         <v>66</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C118" s="5">
         <v>867623050430918</v>
@@ -18856,7 +19073,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C119" s="5">
         <v>868790051558176</v>
@@ -18870,13 +19087,13 @@
         <v>9</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C120" s="5">
         <v>868790051557558</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -18884,7 +19101,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C121" s="5">
         <v>868790051557277</v>
@@ -18898,7 +19115,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C122" s="5">
         <v>867872050456437</v>
@@ -18912,7 +19129,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C123" s="5">
         <v>867623050928556</v>
@@ -18926,7 +19143,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C124" s="5">
         <v>867623050710772</v>
@@ -18940,7 +19157,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C125" s="5">
         <v>867623050945691</v>
@@ -18954,7 +19171,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C126" s="5">
         <v>867623050947036</v>
@@ -18968,7 +19185,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C127" s="5">
         <v>867623050946756</v>
@@ -18979,7 +19196,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>110</v>
@@ -18993,7 +19210,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>19</v>
@@ -19002,15 +19219,15 @@
         <v>867623050711358</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C130" s="5">
         <v>867623050825299</v>
@@ -19021,7 +19238,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>69</v>
@@ -19035,7 +19252,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>22</v>
@@ -19049,7 +19266,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>22</v>
@@ -19063,7 +19280,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>43</v>
@@ -19077,7 +19294,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>43</v>
@@ -20345,8 +20562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20380,7 +20597,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5">
         <v>869092053746571</v>
@@ -20394,7 +20611,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="5">
         <v>869092053746431</v>
@@ -20408,7 +20625,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5">
         <v>869092053746134</v>
@@ -20464,7 +20681,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5">
         <v>867623051051655</v>
@@ -20478,7 +20695,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5">
         <v>867623051045152</v>
@@ -20489,7 +20706,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>110</v>
@@ -20506,7 +20723,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5">
         <v>869092053092497</v>
@@ -20520,7 +20737,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="5">
         <v>869092052951354</v>
@@ -20674,7 +20891,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C23" s="5">
         <v>867623050946673</v>
@@ -20688,7 +20905,7 @@
         <v>106</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24" s="5">
         <v>867623050947135</v>
@@ -20702,7 +20919,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C25" s="5">
         <v>867623050710533</v>
@@ -20716,7 +20933,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C26" s="5">
         <v>867623050946939</v>
@@ -20731,7 +20948,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C27" s="5">
         <v>867623050946798</v>
@@ -20832,7 +21049,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C34" s="5">
         <v>868790051513254</v>
@@ -20888,7 +21105,7 @@
         <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C38" s="5">
         <v>867623050943514</v>
@@ -20902,7 +21119,7 @@
         <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5">
         <v>867623050419093</v>
@@ -21116,7 +21333,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="5">
         <v>869092053272479</v>
@@ -21173,7 +21390,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>115</v>
@@ -21188,7 +21405,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>156</v>
@@ -21311,13 +21528,13 @@
         <v>108</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C67" s="5">
         <v>867623050225375</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="G67" s="9"/>
     </row>
@@ -21326,7 +21543,7 @@
         <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C68" s="5">
         <v>867623050943555</v>
@@ -21353,7 +21570,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>154</v>
@@ -21368,7 +21585,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>61</v>
@@ -21383,7 +21600,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
@@ -21398,7 +21615,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>61</v>
@@ -21413,7 +21630,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>61</v>
@@ -21428,7 +21645,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>144</v>
@@ -21443,7 +21660,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>144</v>
@@ -21458,7 +21675,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>144</v>
@@ -21473,7 +21690,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>144</v>
@@ -21488,7 +21705,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>98</v>
@@ -21773,7 +21990,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>113</v>
@@ -21788,7 +22005,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>113</v>
@@ -21803,7 +22020,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>113</v>
@@ -21818,7 +22035,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>113</v>
@@ -21833,7 +22050,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>113</v>
@@ -21848,7 +22065,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>113</v>
@@ -21863,7 +22080,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>113</v>
@@ -21878,7 +22095,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>113</v>
@@ -21893,7 +22110,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>113</v>
@@ -21908,7 +22125,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>113</v>
@@ -21923,7 +22140,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>144</v>
@@ -21938,7 +22155,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>144</v>
@@ -21953,7 +22170,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>144</v>
@@ -21968,10 +22185,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C111" s="5">
         <v>869092053746738</v>
@@ -21983,10 +22200,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112" s="5">
         <v>869092053747470</v>
@@ -21998,7 +22215,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B113" s="4">
         <v>8</v>
@@ -22013,7 +22230,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B114" s="4">
         <v>8</v>
@@ -22028,7 +22245,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B115" s="4">
         <v>8</v>
@@ -22043,7 +22260,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B116" s="4">
         <v>8</v>
@@ -22057,7 +22274,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B117" s="4">
         <v>8</v>
@@ -22071,10 +22288,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C118" s="5">
         <v>867623050711218</v>
@@ -22085,10 +22302,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C119" s="5">
         <v>867623050733097</v>
@@ -22099,7 +22316,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>37</v>
@@ -22113,7 +22330,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>37</v>
@@ -22127,10 +22344,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" s="5">
         <v>869092053746399</v>
@@ -22141,10 +22358,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="5">
         <v>869092053746530</v>
@@ -22155,7 +22372,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B124" s="4">
         <v>8</v>
@@ -22169,7 +22386,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B125" s="4">
         <v>8</v>
@@ -22634,7 +22851,7 @@
         <v>44</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="5">
         <v>861180050690716</v>
@@ -22704,7 +22921,7 @@
         <v>45</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C163" s="5">
         <v>867872050456254</v>
@@ -22718,7 +22935,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C164" s="5">
         <v>867872050455876</v>
@@ -22743,7 +22960,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>98</v>
@@ -22757,7 +22974,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>98</v>
@@ -22771,7 +22988,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>90</v>
@@ -22779,13 +22996,13 @@
       <c r="C168" s="5">
         <v>867872050307317</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>152</v>
+      <c r="D168" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>115</v>
@@ -22855,7 +23072,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>113</v>
@@ -22869,7 +23086,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>113</v>
@@ -22883,7 +23100,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>113</v>
@@ -22897,7 +23114,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>113</v>
@@ -22911,7 +23128,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>113</v>
@@ -22925,7 +23142,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B179" s="4">
         <v>8</v>
@@ -22939,7 +23156,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B180" s="4">
         <v>8</v>
@@ -22953,7 +23170,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>139</v>
@@ -22967,7 +23184,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>139</v>
@@ -22981,7 +23198,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>139</v>
@@ -23082,7 +23299,7 @@
         <v>91</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="5">
         <v>869092053419518</v>
@@ -23107,7 +23324,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>76</v>
@@ -23124,7 +23341,7 @@
         <v>45</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C193" s="5">
         <v>867623051065838</v>
@@ -23569,7 +23786,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>43</v>
@@ -23695,7 +23912,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>22</v>
@@ -23709,7 +23926,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>22</v>
@@ -23723,7 +23940,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>139</v>
@@ -23737,7 +23954,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>43</v>
@@ -23751,7 +23968,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>8</v>
@@ -23779,7 +23996,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>8</v>
@@ -23793,7 +24010,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>113</v>
@@ -23807,7 +24024,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>8</v>
@@ -23820,46 +24037,102 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="6"/>
+      <c r="A243" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C243" s="5">
+        <v>867623051148550</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="6"/>
+      <c r="A244" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C244" s="5">
+        <v>867623051144153</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="6"/>
+      <c r="A245" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C245" s="5">
+        <v>867623050959379</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="6"/>
+      <c r="A246" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" s="5">
+        <v>867623050956094</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="6"/>
+      <c r="A247" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C247" s="5">
+        <v>867623050939074</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="6"/>
+      <c r="A248" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" s="5">
+        <v>869092052951073</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="6"/>
+      <c r="A249" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C249" s="5">
+        <v>869092052616999</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
@@ -24180,7 +24453,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25062,10 +25335,1249 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G185"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050899336</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051149699</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050753613</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051143916</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050936997</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051149152</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050962498</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050959650</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053275571</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052623813</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050504514</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623051079235</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052624597</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052624555</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052624837</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623051146695</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051149178</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050961375</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050936195</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052947170</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052616536</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052616932</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052864714</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053273253</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623051051770</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051046192</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051047596</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623050942631</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051048412</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>861180050746674</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092052947733</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>861180050753498</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <v>861180050753415</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867872050403835</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092052617096</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092052951016</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092052950893</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="8">
+        <v>869092052625032</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623051149210</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623051065713</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623051078930</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623051148493</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051149459</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790051608179</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="5">
+        <v>868790051606470</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092053418577</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092053413610</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092053412570</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092052947592</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092052951172</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D59">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25945,19 +27457,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -25980,268 +27492,606 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623051074772</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051108950</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051075613</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051109198</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051073295</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051078633</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051065796</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051078419</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="8">
+        <v>867623051079052</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051068436</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053100639</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053737612</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623051103514</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051111731</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092053103252</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050749157</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050689510</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051079557</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623051073733</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790051607874</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868790051475611</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053275233</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092053270333</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053103351</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623051110055</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051073378</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051111251</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092053103211</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051079334</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790051474978</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050420471</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050223594</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050273771</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623051109339</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051079730</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051071059</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051075399</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051075373</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053414477</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092053103013</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623051080639</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092053423130</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092053739030</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -26826,23 +28676,26 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C51">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -26865,372 +28718,836 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051475371</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623050994558</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051074715</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051150636</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051022797</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623051036052</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790051517750</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053413990</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053275456</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053970437</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050855379</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623051036011</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050996579</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050854471</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623051024579</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623051036094</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053738776</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052961171</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050856195</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053527054</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053097371</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053157159</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050996678</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623051065754</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053098692</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868790051474358</v>
+      </c>
       <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868790051475157</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790051145974</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092053103278</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092053416712</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051475199</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790051474853</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053097892</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053738214</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051072776</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051109891</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050871673</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="5">
+        <v>868790051475090</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053275654</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623051022136</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790050728911</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051035977</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051022870</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051034479</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050689452</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623051022110</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623051034792</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>868790051473418</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051110535</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092053254410</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092053524077</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092053415219</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053275712</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092053738412</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="4">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5">
+        <v>861180050753233</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="8">
+        <v>867623050871418</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623050854778</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869092053738990</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092053987431</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -27261,76 +29578,67 @@
       <c r="D64" s="6"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -27472,15 +29780,12 @@
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -27684,13 +29989,13 @@
       <c r="C184" s="9"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -27701,33 +30006,27 @@
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:D63">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="I253" sqref="I253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -27750,1737 +30049,1779 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623051242353</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867623051243054</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053744337</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623051172956</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623051247451</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790051146931</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623051168673</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050999219</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623051169515</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050870071</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050867697</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053103153</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053103450</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051247139</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623051247519</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052624373</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051247212</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051250117</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623051247816</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051247030</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053099872</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053100035</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092053275092</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052188635</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053521974</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092053098114</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092053739014</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092052953236</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051243138</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051243617</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051144294</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790051557517</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092053100597</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053735939</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051247311</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051244052</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051247873</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092052947659</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="5">
+        <v>868790051475074</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790051037031</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790050759478</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092053415276</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051242957</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092053987134</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623050996538</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867623051246479</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623051247634</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623051246875</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051247790</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623051247436</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623051174077</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092053274939</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053275613</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051022490</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="5">
+        <v>867623051246438</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="5">
+        <v>861180050715737</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623051108893</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050939090</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623051245513</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623051245273</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="5">
+        <v>861180050746971</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623051242973</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="8">
+        <v>867623051250091</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="4">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5">
+        <v>861180050715570</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="4">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5">
+        <v>861180050715257</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623051144658</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623051168814</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="5">
+        <v>867623051247659</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867623051241751</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="5">
+        <v>867623051246990</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
+  <sortState ref="A2:D71">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="308">
   <si>
     <t>Retail Name</t>
   </si>
@@ -910,6 +910,69 @@
   <si>
     <t>Mimi</t>
   </si>
+  <si>
+    <t>S r ele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সাথী মোবাইল </t>
+  </si>
+  <si>
+    <t>Molla</t>
+  </si>
+  <si>
+    <t>Mitali</t>
+  </si>
+  <si>
+    <t>Arshe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desh telecom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?(c21-64) </t>
+  </si>
+  <si>
+    <t>Not ok</t>
+  </si>
+  <si>
+    <t>Liton // Kabir</t>
+  </si>
+  <si>
+    <t>Rasel tel</t>
+  </si>
+  <si>
+    <t>Brothers tel</t>
+  </si>
+  <si>
+    <t>Sohan ent</t>
+  </si>
+  <si>
+    <t>Desh telecom</t>
+  </si>
+  <si>
+    <t>Shafi Mobile</t>
+  </si>
+  <si>
+    <t>Saju telecom</t>
+  </si>
+  <si>
+    <t>Bismilla noldanga</t>
+  </si>
+  <si>
+    <t>(c20-a)</t>
+  </si>
+  <si>
+    <t>Jilani Exclusive</t>
+  </si>
+  <si>
+    <t>GR communication</t>
+  </si>
+  <si>
+    <t>Office Sales</t>
+  </si>
+  <si>
+    <t>Hirok Office Sales</t>
+  </si>
 </sst>
 </file>
 
@@ -938,7 +1001,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,12 +1029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,18 +1139,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7418,7 +7463,7 @@
       <c r="B35" s="4">
         <v>8</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="20">
         <v>861180050567096</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -14338,8 +14383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A163" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17328,8 +17373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18605,31 +18650,31 @@
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="5">
         <v>869092051977236</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="5">
         <v>869092052621858</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="9"/>
@@ -20562,8 +20607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="H175" sqref="G174:H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22996,7 +23041,7 @@
       <c r="C168" s="5">
         <v>867872050307317</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -25337,7 +25382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -27461,8 +27506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27880,7 +27925,9 @@
       <c r="C29" s="5">
         <v>869092053103211</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -28075,7 +28122,7 @@
       <c r="C43" s="5">
         <v>869092053423130</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -28089,7 +28136,7 @@
       <c r="C44" s="5">
         <v>869092053739030</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -28687,8 +28734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30018,8 +30065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="I253" sqref="I253"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31830,15 +31877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I51" sqref="I49:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -31861,336 +31908,756 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052947915</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051037270</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867623051144732</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051478672</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051479357</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790051480678</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050855031</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051168590</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623051169531</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623051000652</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050866350</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623050870899</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050998997</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051016336</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050715034</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050748316</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051243872</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051246933</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051478979</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790051480454</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868790051479498</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053736952</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092653100525</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050999516</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050998799</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="8">
+        <v>867623051026251</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051021377</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051173475</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051026210</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051024413</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053100373</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053748098</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092052951156</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790051517370</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790051036090</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051073592</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092053100811</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092052946933</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092053100399</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790051478896</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790051478631</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051478417</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790051478656</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092053419617</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092053099716</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5">
+        <v>861180050699998</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092053745250</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092052947030</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051174036</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623050996975</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092053412935</v>
+      </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868790051036694</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="5">
+        <v>868790051035514</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623051024058</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="G55" s="9"/>
     </row>
@@ -32707,6 +33174,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C52">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32715,15 +33185,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -32746,536 +33216,1146 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050714417</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053490352</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053415474</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092053868011</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052745517</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092053868151</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790051034293</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053100456</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623051168897</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050855254</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790051558291</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867623050859652</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623051143577</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623051329655</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623051323617</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623051296219</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623051319037</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623051314756</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623051319011</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623051318518</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623051314673</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623051291558</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623051314897</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053734932</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053746811</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051156074</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051328996</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051320332</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092053868078</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623051314319</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623051169754</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050855270</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623050864850</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623051016153</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051143510</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623051170018</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623051326339</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051320696</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623051326255</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092052745814</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092052951131</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623051291517</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623051168830</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623051168830</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623051329358</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092053865652</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="8">
+        <v>868790051518113</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="5">
+        <v>868790051557111</v>
+      </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="5">
+        <v>868790051145610</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092053866031</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092053865579</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092052744452</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092052947493</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092053100134</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092053865991</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="5">
+        <v>867623051017979</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623051145671</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050997999</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623050855197</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="5">
+        <v>867623050866913</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867623051144070</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="5">
+        <v>867623051173194</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5">
+        <v>867623051169234</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623051168715</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623051142850</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050997312</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623051144112</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="5">
+        <v>867623051172931</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867623050996439</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -33592,6 +34672,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C71">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="316">
   <si>
     <t>Retail Name</t>
   </si>
@@ -973,6 +973,30 @@
   <si>
     <t>Hirok Office Sales</t>
   </si>
+  <si>
+    <t xml:space="preserve">(c25s-28) </t>
+  </si>
+  <si>
+    <t>Nahida</t>
+  </si>
+  <si>
+    <t>Tuhin mobile</t>
+  </si>
+  <si>
+    <t>C d sound</t>
+  </si>
+  <si>
+    <t>Borsha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saju telecom </t>
+  </si>
+  <si>
+    <t>Bismillah mobile</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
 </sst>
 </file>
 
@@ -33185,8 +33209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34683,15 +34707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -34714,218 +34738,494 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867623050652552</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053869738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053747652</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050894857</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050921452</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="8">
+        <v>861180050704335</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050756574</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623051382936</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790051035290</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052745475</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053865413</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053868276</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050893891</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052623433</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052623219</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092053865512</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092053865637</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052623532</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092052745756</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053746415</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050652354</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050651398</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050652057</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050659672</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861180050715919</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051381474</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623050952275</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867623051382415</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867623051382936</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867623050895458</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867623050652438</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053417314</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867623051383033</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867872050404973</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623051383371</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -35560,6 +35860,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/July/Others/Entry_Imei-List -July'2021.xlsx
+++ b/realme/July/Others/Entry_Imei-List -July'2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="10" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="329">
   <si>
     <t>Retail Name</t>
   </si>
@@ -997,6 +997,45 @@
   <si>
     <t>Park</t>
   </si>
+  <si>
+    <t>Bhuiyan mob</t>
+  </si>
+  <si>
+    <t>Mk tel</t>
+  </si>
+  <si>
+    <t>Mobile park</t>
+  </si>
+  <si>
+    <t>Likon</t>
+  </si>
+  <si>
+    <t>Moom tel</t>
+  </si>
+  <si>
+    <t>Rimi Telecom</t>
+  </si>
+  <si>
+    <t>T.M Telecom</t>
+  </si>
+  <si>
+    <t>(C25 s28)</t>
+  </si>
+  <si>
+    <t>863E2305M901553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (c21-64) </t>
+  </si>
+  <si>
+    <t>Tutul</t>
+  </si>
+  <si>
+    <t>Farha Telecom</t>
+  </si>
+  <si>
+    <t>Hiron Bhai</t>
+  </si>
 </sst>
 </file>
 
@@ -34707,8 +34746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37649,15 +37688,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -37680,386 +37719,848 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050710670</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050756293</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867872050388531</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051832159</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051832290</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052621718</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050921734</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050918730</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092053864853</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052621676</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092053969694</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053867898</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="5">
+        <v>861180050746716</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092053970890</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092053970817</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050919431</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623050895516</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790051833371</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053970858</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053869795</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867623050654632</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790051831896</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790051556436</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092053479991</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053477870</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623051381151</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="5">
+        <v>867623051383058</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092053865033</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092053865538</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092053969314</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="8">
+        <v>869092053865553</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="5">
+        <v>867623050919597</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790051832050</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790051832274</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790051833231</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623050659698</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868790051832233</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623051381235</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5">
+        <v>861180050715158</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790051833116</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790051833215</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051144597</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092053971054</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092053868375</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092052623516</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092053867757</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="5">
+        <v>867623051382597</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="5">
+        <v>867623051382936</v>
+      </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867623051379536</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>861180050753050</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092053866171</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053970791</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867623050902692</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5">
+        <v>861180050748233</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>869092052745830</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867623050654616</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050919852</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623051384833</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092053409253</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5">
+        <v>867872050384639</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -38526,6 +39027,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D59">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
